--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3F63C8-8BDC-4F60-A41E-E371FFB68007}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8FDF79-E8C8-4CBA-A1A4-3F4273160F45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5325" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
@@ -574,9 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC74272D-8777-4FE7-835C-9D885C3D846F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -634,7 +632,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -668,15 +666,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="37.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="37.5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="14"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
     </row>
@@ -724,7 +721,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -758,15 +755,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="37.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="37.5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
     </row>

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8FDF79-E8C8-4CBA-A1A4-3F4273160F45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF06930-EC6A-489D-B662-74D046F8D60C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5325" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>header1</t>
   </si>
@@ -66,10 +66,6 @@
     <rPh sb="90" eb="92">
       <t>エンシュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -587,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -603,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -647,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -663,30 +659,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="37.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="108">
@@ -695,7 +689,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>4</v>
@@ -736,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -752,17 +746,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="37.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
     </row>
@@ -813,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -829,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -899,7 +891,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -949,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -965,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1031,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1047,7 +1039,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1105,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1121,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1185,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1201,7 +1193,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF06930-EC6A-489D-B662-74D046F8D60C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E63E87D-4F83-4759-8E27-D87FCCA0A1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5325" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="-15600" yWindow="525" windowWidth="15930" windowHeight="14295" activeTab="4" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,13 @@
     <sheet name="p2" sheetId="1" r:id="rId3"/>
     <sheet name="p3" sheetId="9" r:id="rId4"/>
     <sheet name="p4" sheetId="4" r:id="rId5"/>
-    <sheet name="p5" sheetId="5" r:id="rId6"/>
-    <sheet name="p6" sheetId="6" r:id="rId7"/>
-    <sheet name="p7" sheetId="7" r:id="rId8"/>
-    <sheet name="p8" sheetId="8" r:id="rId9"/>
+    <sheet name="p5" sheetId="11" r:id="rId6"/>
+    <sheet name="p6" sheetId="5" r:id="rId7"/>
+    <sheet name="p7" sheetId="12" r:id="rId8"/>
+    <sheet name="p8" sheetId="13" r:id="rId9"/>
+    <sheet name="p9" sheetId="6" r:id="rId10"/>
+    <sheet name="p10" sheetId="7" r:id="rId11"/>
+    <sheet name="p11" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
   <si>
     <t>header1</t>
   </si>
@@ -84,16 +87,10 @@
     <t>昨年度のコースのコンテンツを再利用したい</t>
   </si>
   <si>
-    <t>他の教員にコースコンテンツを渡したい</t>
-  </si>
-  <si>
     <t>広大で作ったコンテンツを他大学でも使いたい</t>
   </si>
   <si>
     <t>他大学で作ったコンテンツを広大でも使いたい</t>
-  </si>
-  <si>
-    <t>学生の提出物を含めてコースのバックアップを取りたい</t>
   </si>
   <si>
     <t>広大moodle 教職員向け逆引きガイド _コース設定</t>
@@ -117,13 +114,236 @@
   </si>
   <si>
     <t>coursesetting1.png</t>
+  </si>
+  <si>
+    <t>昨年度のコースのコンテンツを部分的に再利用したい</t>
+  </si>
+  <si>
+    <t>コースを初期化したい</t>
+  </si>
+  <si>
+    <t>コースをコピーしたい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="import"&gt;&lt;/a&gt;コースのコンテンツをインポートする方法&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧コースのコンテンツを、新コースにインポートするやり方です。事前にインポート先のコースを準備する必要があります。自動作成のコースにインポートすることができます。インポート時に、再利用する項目を絞り込むことができます。
+同じ教員が管理するコース間で、コースの内容を再利用したい時に便利です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昨年度のコースのコンテンツを今年度のコースで再利用するには、以下の方法で実現することができます。
+・コースのコンテンツをインポートする方法（推奨）
+・コースのバックアップを取得し、リストアする方法
+ここでは、コースのコンテンツをインポートする方法を説明します。</t>
+    <rPh sb="0" eb="3">
+      <t>サクネンド</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>コンネンド</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>新コースに入り、使用するテンプレートを選びます（初めて使うコースの場合）</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下の「さらに v」をクリックし「コース再利用」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に「コース 設定 …」がありますが、その下の操作メニューが「インポート」となっているのを確認します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="date"&gt;&lt;/a&gt;日付の設定&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昨年度のコースのコンテンツを今年度のコースで再利用するには、以下の方法で実現することができます。
+・コースのコンテンツをインポートする方法（推奨）
+・コースのバックアップを取得し、リストアする方法
+ここでは、「コースのコンテンツをインポートする方法」を説明します。</t>
+    <rPh sb="0" eb="3">
+      <t>サクネンド</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>コンネンド</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧コースを選択します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="preparation"&gt;&lt;/a&gt;インポートする準備&lt;/h3&gt;</t>
+    <rPh sb="36" eb="38">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧コースのコンテンツを、新コースにインポートするやり方です。事前にインポート先のコースを準備する必要があります。自動作成のコースにインポートすることができます。インポート時に、再利用する項目を絞り込むことができます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定のコンテンツのみを再利用する場合、そのコンテンツが含まれるセクションごとインポートするという作業を行います。この時moodleは、インポートするセクションが上から何番目にあるかを判断し、新コースの同じ位置にインポートします。ですので、必ず以下の2点を行なってください。
+・旧コースのセクションをインポートする新コースのセクションは空にしておく
+・旧コースのセクション内にサブセクションがある場合、インポート前に新コースの読み込み先セクションにも同じ構成のサブセクションを作っておく</t>
+    <rPh sb="27" eb="28">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「続ける」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次へ」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新コースにコピーするセクションや項目を選びます
+「連絡事項」「コメントシート」は重複しますので、選ばないようにしてください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「次へ」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「インポートを実行する」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用条件や、締め切りなど、日付を設定している項目がある場合は、設定を変更します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧コースにおいて、項目の「利用制限」の日付設定や、「課題」の締切日時など、日時を設定している場合は注意が必要です。 新コースにおいては、旧コースで設定された日付がそのまま引き継がれるわけではありません。 新コースの該当箇所に設定されるのは、次のような日時です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新コースに設定される日時 ＝ 「新コースの開設日時」　＋　（「旧コースの該当項目の設定日時」 ー　「旧コースの開設日時」)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２０２２年4月1日0:00開設の旧コースの項目を、2種類の新コースにインポートした場合、項目に設定されている日付がどのようになるか、具体例を表にまとめました。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;table border="1"&gt;
+    &lt;tr&gt;
+      &lt;th&gt;コース&lt;/th&gt;
+      &lt;th&gt;旧コース&lt;/th&gt;
+      &lt;th&gt;新コースA&lt;/th&gt;
+      &lt;th&gt;新コースB&lt;/th&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;開設日時&lt;/th&gt;
+      &lt;td&gt;2022年4月1日0:00&lt;/td&gt;
+      &lt;td&gt;2023年4月1日0:00&lt;/td&gt;
+      &lt;td&gt;2023年4月1日0:00&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th&gt;課題終了日時&lt;/th&gt;
+      &lt;td&gt;2022年4月19日0:00	&lt;/td&gt;
+      &lt;td&gt;2023年4月19日0:00&lt;/td&gt;
+      &lt;td&gt;2023年5月8日0:00&lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/table&gt;</t>
+    <rPh sb="58" eb="59">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +400,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -203,34 +430,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -239,19 +441,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,56 +775,309 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC74272D-8777-4FE7-835C-9D885C3D846F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>16</v>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="11"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="11"/>
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7550A206-2A47-42FD-A6A0-0D0BE341BE00}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC7DB3-362D-4077-932E-AAF085409BB7}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="7"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="8"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -631,18 +1089,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -650,7 +1106,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -658,8 +1114,8 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>16</v>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -667,41 +1123,39 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="27">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="108">
+    </row>
+    <row r="7" spans="1:7" ht="105.6">
       <c r="A7" s="1"/>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -718,18 +1172,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -737,7 +1189,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -745,8 +1197,8 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>16</v>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -754,29 +1206,29 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -793,18 +1245,16 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -812,7 +1262,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -820,33 +1270,33 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>16</v>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -857,24 +1307,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941222FB-E55A-47CC-B5A1-F5E77124EF18}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -882,7 +1328,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -890,29 +1336,140 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>16</v>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="52.8">
       <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="26.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="79.2">
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="26.4">
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="39.6">
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="26.4">
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="360">
+      <c r="B29" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -922,33 +1479,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C020CB47-0798-4D2D-8049-474B7F8F9449}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -956,45 +1511,61 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>16</v>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="52.8">
       <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="39.6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="8"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1004,33 +1575,31 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7550A206-2A47-42FD-A6A0-0D0BE341BE00}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1038,37 +1607,45 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>16</v>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="8"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="8"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1078,33 +1655,31 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC7DB3-362D-4077-932E-AAF085409BB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EE6385-DC28-476D-8005-F1BA007D69FC}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1112,148 +1687,125 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>16</v>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="8"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="8"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="8"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9652E4E-CF8A-4811-A77C-0CF613F4D6EB}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="8"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="8"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="7:7">
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="7:7">
-      <c r="G19" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E63E87D-4F83-4759-8E27-D87FCCA0A1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4071F77A-BE03-4A63-B81D-A6A1EFD5C648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15600" yWindow="525" windowWidth="15930" windowHeight="14295" activeTab="4" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
@@ -203,46 +203,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>昨年度のコースのコンテンツを今年度のコースで再利用するには、以下の方法で実現することができます。
-・コースのコンテンツをインポートする方法（推奨）
-・コースのバックアップを取得し、リストアする方法
-ここでは、「コースのコンテンツをインポートする方法」を説明します。</t>
-    <rPh sb="0" eb="3">
-      <t>サクネンド</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>コンネンド</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>サイリヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジツゲン</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>スイショウ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>旧コースを選択します</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -250,19 +210,6 @@
     <t>&lt;h3&gt;&lt;a name="preparation"&gt;&lt;/a&gt;インポートする準備&lt;/h3&gt;</t>
     <rPh sb="36" eb="38">
       <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>旧コースのコンテンツを、新コースにインポートするやり方です。事前にインポート先のコースを準備する必要があります。自動作成のコースにインポートすることができます。インポート時に、再利用する項目を絞り込むことができます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特定のコンテンツのみを再利用する場合、そのコンテンツが含まれるセクションごとインポートするという作業を行います。この時moodleは、インポートするセクションが上から何番目にあるかを判断し、新コースの同じ位置にインポートします。ですので、必ず以下の2点を行なってください。
-・旧コースのセクションをインポートする新コースのセクションは空にしておく
-・旧コースのセクション内にサブセクションがある場合、インポート前に新コースの読み込み先セクションにも同じ構成のサブセクションを作っておく</t>
-    <rPh sb="27" eb="28">
-      <t>フク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -335,6 +282,61 @@
     </rPh>
     <rPh sb="141" eb="143">
       <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昨年度のコースのコンテンツを今年度のコースで再利用するには、以下の方法で実現することができます。
+・コースのコンテンツをインポートする方法（推奨）
+・コースのバックアップを取得し、リストアする方法</t>
+    <rPh sb="0" eb="3">
+      <t>サクネンド</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>コンネンド</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧コースのコンテンツを、新コースにインポートするやり方を説明します。
+事前にインポート先のコースを準備する必要があります。
+自動作成のコースにインポートすることができます。インポート時に、再利用する項目を絞り込むことができます。</t>
+    <rPh sb="28" eb="30">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンテンツが含まれるセクションごとインポートするという作業を行います。
+この時moodleは、インポートするセクションが上から何番目にあるかを判断し、新コースの同じ位置にインポートします。ですので、必ず以下の2点を行なってください。
+・旧コースのセクションをインポートする新コースのセクションは空にしておく
+・旧コースのセクション内にサブセクションがある場合、インポート前に新コースの読み込み先セクションにも同じ構成のサブセクションを作っておく</t>
+    <rPh sb="6" eb="7">
+      <t>フク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1348,18 +1350,18 @@
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="52.8">
+    <row r="6" spans="1:4" ht="39.6">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="26.4">
+    <row r="7" spans="1:4" ht="39.6">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -1372,7 +1374,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1382,7 +1384,7 @@
     </row>
     <row r="11" spans="1:4" ht="79.2">
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1405,42 +1407,42 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="26.4">
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:2">
@@ -1453,22 +1455,22 @@
     </row>
     <row r="26" spans="2:2" ht="39.6">
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="26.4">
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="360">
       <c r="B29" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4071F77A-BE03-4A63-B81D-A6A1EFD5C648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE190A6-919E-4C1C-839B-E045E5B0ABAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15600" yWindow="525" windowWidth="15930" windowHeight="14295" activeTab="4" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="-21105" yWindow="435" windowWidth="20370" windowHeight="15105" activeTab="4" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
   <si>
     <t>header1</t>
   </si>
@@ -127,51 +127,6 @@
   </si>
   <si>
     <t>&lt;h3&gt;&lt;a name="import"&gt;&lt;/a&gt;コースのコンテンツをインポートする方法&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>旧コースのコンテンツを、新コースにインポートするやり方です。事前にインポート先のコースを準備する必要があります。自動作成のコースにインポートすることができます。インポート時に、再利用する項目を絞り込むことができます。
-同じ教員が管理するコース間で、コースの内容を再利用したい時に便利です。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>昨年度のコースのコンテンツを今年度のコースで再利用するには、以下の方法で実現することができます。
-・コースのコンテンツをインポートする方法（推奨）
-・コースのバックアップを取得し、リストアする方法
-ここでは、コースのコンテンツをインポートする方法を説明します。</t>
-    <rPh sb="0" eb="3">
-      <t>サクネンド</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>コンネンド</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>サイリヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジツゲン</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>スイショウ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>セツメイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -286,42 +241,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>昨年度のコースのコンテンツを今年度のコースで再利用するには、以下の方法で実現することができます。
-・コースのコンテンツをインポートする方法（推奨）
-・コースのバックアップを取得し、リストアする方法</t>
-    <rPh sb="0" eb="3">
-      <t>サクネンド</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>コンネンド</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>サイリヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジツゲン</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>スイショウ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>旧コースのコンテンツを、新コースにインポートするやり方を説明します。
 事前にインポート先のコースを準備する必要があります。
 自動作成のコースにインポートすることができます。インポート時に、再利用する項目を絞り込むことができます。</t>
@@ -331,21 +250,121 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コンテンツが含まれるセクションごとインポートするという作業を行います。
+    <t>昨年度のコースのコンテンツを今年度のコースで再利用するには、以下の方法で実現することができます。
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;コースのコンテンツをインポートする方法（推奨）&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;コースのバックアップを取得し、リストアする方法&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="0" eb="3">
+      <t>サクネンド</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>コンネンド</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="backup"&gt;&lt;/a&gt;コースのバックアップを取得し、リストアする方法&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昨年度のコースのコンテンツを今年度のコースで再利用するには、以下の方法で実現することができます。
+&lt;ul&gt;
+&lt;li&gt;コースのコンテンツをインポートする方法（推奨）&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;コースのバックアップを取得し、リストアする方法&lt;/b&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="0" eb="3">
+      <t>サクネンド</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>コンネンド</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧コースをコピーして、新コースを作成するやり方です。事前にコピー先のコースを用意する必要はありませんが、既存のコースをコピー先に指定することはできません。また、旧コースの項目の中で、再利用したい項目を絞り込んでコピーするむこともできません。</t>
+  </si>
+  <si>
+    <t>この方法は、旧コースと全く同じ内容のコースを作成したい場合に便利です。</t>
+  </si>
+  <si>
+    <t>セクションごとインポートするという作業を行います。
 この時moodleは、インポートするセクションが上から何番目にあるかを判断し、新コースの同じ位置にインポートします。ですので、必ず以下の2点を行なってください。
 ・旧コースのセクションをインポートする新コースのセクションは空にしておく
 ・旧コースのセクション内にサブセクションがある場合、インポート前に新コースの読み込み先セクションにも同じ構成のサブセクションを作っておく</t>
-    <rPh sb="6" eb="7">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昨年度のコースのコンテンツを部分的に再利用したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧コースのコンテンツを、新コースにインポートするやり方を説明します。
+事前にインポート先のコースを準備する必要があります。
+自動作成のコースにインポートすることができます。インポート時に、再利用する項目を絞り込むことができます。
+部分的な再利用をご希望の方は、&lt;a href="p6.html"&gt;昨年度のコースのコンテンツを部分的に再利用したい&lt;/a&gt;をご確認ください。</t>
+    <rPh sb="28" eb="30">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新コースに入り、使用するテンプレートを選びます（初めて使うコースの場合）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +428,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -432,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,6 +484,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1309,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941222FB-E55A-47CC-B5A1-F5E77124EF18}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1350,18 +1378,18 @@
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="39.6">
+    <row r="6" spans="1:4" ht="69.599999999999994" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="39.6">
+    <row r="7" spans="1:4" ht="60.6" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -1374,55 +1402,57 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="79.2">
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4">
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="26.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -1431,46 +1461,31 @@
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="39.6">
       <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" ht="26.4">
       <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="39.6">
-      <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2" t="s">
+    <row r="26" spans="2:2" ht="360">
+      <c r="B26" s="9" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" ht="26.4">
-      <c r="B28" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="360">
-      <c r="B29" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1484,8 +1499,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C020CB47-0798-4D2D-8049-474B7F8F9449}">
   <dimension ref="A1:D13"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="66">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1498,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1523,50 +1624,133 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="52.8">
+      <c r="B5" s="7"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="66">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="39.6">
-      <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="79.2">
       <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="26.4">
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="39.6">
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="26.4">
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="360">
+      <c r="B29" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1576,12 +1760,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
-  <dimension ref="A1:D10"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EE6385-DC28-476D-8005-F1BA007D69FC}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1594,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1635,99 +1819,25 @@
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="7"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="7"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="7"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EE6385-DC28-476D-8005-F1BA007D69FC}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="7"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="7"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="7"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="7"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+    <row r="11" spans="1:4">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1741,7 +1851,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1783,19 +1893,22 @@
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="20.399999999999999">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
+      <c r="B6" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="7"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="7"/>
+      <c r="B8" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE190A6-919E-4C1C-839B-E045E5B0ABAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B9094C-02EA-46C9-9AC7-FE325234803B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21105" yWindow="435" windowWidth="20370" windowHeight="15105" activeTab="4" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4680" activeTab="5" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="78">
   <si>
     <t>header1</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>coursesetting1.png</t>
-  </si>
-  <si>
-    <t>昨年度のコースのコンテンツを部分的に再利用したい</t>
   </si>
   <si>
     <t>コースを初期化したい</t>
@@ -150,10 +147,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コース名の下に「コース 設定 …」がありますが、その下の操作メニューが「インポート」となっているのを確認します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="date"&gt;&lt;/a&gt;日付の設定&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -170,15 +163,6 @@
   </si>
   <si>
     <t>「続ける」をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>次へ」をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新コースにコピーするセクションや項目を選びます
-「連絡事項」「コメントシート」は重複しますので、選ばないようにしてください</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -292,10 +276,52 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>昨年度のコースのコンテンツを部分的に再利用したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新コースに入り、使用するテンプレートを選びます（初めて使うコースの場合）</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースコピーについて&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧コースをコピーして、新コースを作成するやり方です。
+事前にコピー先のコースを用意する必要はありませんが、既存のコースをコピー先に指定することはできません。
+また、旧コースの項目の中で、再利用したい項目を絞り込んでコピーするむこともできません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この方法は、旧コースと全く同じ内容のコースを作成したい場合に便利です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セクションごとインポートするという作業を行います。
+この時moodleは、インポートするセクションが上から何番目にあるかを判断し、新コースの同じ位置にインポートします。ですので、状況に応じて必ず以下を実施してください。
+・旧コースのセクションをインポートする新コースのセクションは空にしておく
+・旧コースのセクション内にサブセクションがある場合、インポート前に新コースの読み込み先セクションにも同じ構成のサブセクションを作っておく</t>
+    <rPh sb="89" eb="91">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「続ける」をクリックします
+&lt;u&gt;&lt;b&gt;利用条件や、締め切りなど、日付を設定している項目がある場合は、設定を変更します&lt;/b&gt;&lt;/u&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>昨年度のコースのコンテンツを今年度のコースで再利用するには、以下の方法で実現することができます。
 &lt;ul&gt;
-&lt;li&gt;コースのコンテンツをインポートする方法（推奨）&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;コースのバックアップを取得し、リストアする方法&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;コースのコンテンツを&lt;u&gt;インポート&lt;/u&gt;する方法（推奨）&lt;/b&gt;&lt;/li&gt;
+&lt;li&gt;コースのバックアップを取得し、リストアする方法&lt;/li&gt;
 &lt;/ul&gt;</t>
     <rPh sb="0" eb="3">
       <t>サクネンド</t>
@@ -315,56 +341,447 @@
     <rPh sb="36" eb="38">
       <t>ジツゲン</t>
     </rPh>
-    <rPh sb="75" eb="77">
+    <rPh sb="85" eb="87">
       <t>ホウホウ</t>
     </rPh>
-    <rPh sb="78" eb="80">
+    <rPh sb="88" eb="90">
       <t>スイショウ</t>
     </rPh>
-    <rPh sb="105" eb="107">
+    <rPh sb="116" eb="118">
       <t>シュトク</t>
     </rPh>
-    <rPh sb="115" eb="117">
+    <rPh sb="126" eb="128">
       <t>ホウホウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>旧コースをコピーして、新コースを作成するやり方です。事前にコピー先のコースを用意する必要はありませんが、既存のコースをコピー先に指定することはできません。また、旧コースの項目の中で、再利用したい項目を絞り込んでコピーするむこともできません。</t>
-  </si>
-  <si>
-    <t>この方法は、旧コースと全く同じ内容のコースを作成したい場合に便利です。</t>
-  </si>
-  <si>
-    <t>セクションごとインポートするという作業を行います。
-この時moodleは、インポートするセクションが上から何番目にあるかを判断し、新コースの同じ位置にインポートします。ですので、必ず以下の2点を行なってください。
-・旧コースのセクションをインポートする新コースのセクションは空にしておく
-・旧コースのセクション内にサブセクションがある場合、インポート前に新コースの読み込み先セクションにも同じ構成のサブセクションを作っておく</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>昨年度のコースのコンテンツを部分的に再利用したい</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>旧コースのコンテンツを、新コースにインポートするやり方を説明します。
-事前にインポート先のコースを準備する必要があります。
+    <t>旧コースにおいて、項目の「利用制限」の日付設定や、「課題」の締切日時など、日時を設定している場合は注意が必要です。 
+新コースにおいては、旧コースで設定された日付がそのまま引き継がれるわけではありません。
+ 新コースの該当箇所に設定されるのは、次のような日時です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２０２２年4月1日0:00開設の旧コースの項目を、2種類の新コースにインポートした場合、項目に設定されている日付がどのようになるか、具体例を表にまとめました。
+ &lt;table border="1" WIDTH=30&gt;
+    &lt;tr&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;コース&lt;/th&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;旧コース&lt;/th&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;新コースA&lt;/th&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;新コースB&lt;/th&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;開設日時&lt;/th&gt;
+      &lt;td&gt;2022年4月1日0:00&lt;/td&gt;
+      &lt;td&gt;2023年4月1日0:00&lt;/td&gt;
+      &lt;td&gt;2023年4月1日0:00&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;課題終了日時&lt;/th&gt;
+      &lt;td&gt;2022年4月19日0:00	&lt;/td&gt;
+      &lt;td&gt;2023年4月19日0:00&lt;/td&gt;
+      &lt;td&gt;2023年5月8日0:00&lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/table&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="reuse"&gt;&lt;/a&gt;コースのコンテンツを再利用する方法&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>eラーニング支援室では最も手軽に行えるインポートを推奨しています。
+ここでは&lt;b&gt;コースのコンテンツをインポートする方法&lt;/b&gt;を説明します。
+この方法は、事前にインポート先のコースを準備する必要があります。
 自動作成のコースにインポートすることができます。インポート時に、再利用する項目を絞り込むことができます。
 部分的な再利用をご希望の方は、&lt;a href="p6.html"&gt;昨年度のコースのコンテンツを部分的に再利用したい&lt;/a&gt;をご確認ください。</t>
-    <rPh sb="28" eb="30">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 新コースに入り、使用するテンプレートを選びます（初めて使うコースの場合）</t>
+    <rPh sb="6" eb="9">
+      <t>シエンシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;コースをバックアップする&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>eラーニング支援室では最も手軽に行えるインポートを推奨しています。
+インポートの方法は、&lt;a href="p4.html"&gt;こちら&lt;/a&gt;をご確認ください。</t>
+    <rPh sb="6" eb="9">
+      <t>シエンシツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここでは&lt;b&gt;コースのバックアップを取得し、リストアする方法&lt;/b&gt;を説明します。
+旧コースでバックアップを作成し、新コースにリストアするやり方です。
+登録されている教員が異なるコース間でコースの内容を共通にしたい場合に便利です。
+事前にリストアするコースを準備する必要があります。自動作成のコースにリストアすることができます。
+ 旧コースでのバックアップ時、新コースでのリストア時それぞれで、対象とする項目を選択できます。
+またリストア時には、新コースのコース設定に旧コースのものを上書きするかどうかも選択することができます。
+この上書き設定を誤ると、&lt;u&gt;&lt;b&gt;コースの編集権限を失うことがあります&lt;/u&gt;&lt;/b&gt;ので注意が必要です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に「コース 設定 …」がありますが、その下の操作メニューをクリックし、「バックアップ」を選択します</t>
+    <rPh sb="50" eb="52">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「次へ」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新コースにコピーするセクションや項目を選択します
+デフォルトですべて選択されているため、チェックマークをクリックすることで選択を外すことができます</t>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「続ける」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧コースに入り、コース名の下の「さらに v」をクリックし「コース再利用」をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新コースに入り、使用するテンプレートを選びます（初めて使うコースの場合）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下の「さらに v」をクリックし「コース再利用」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;教員が異なるコース間で共有をする場合&lt;/h3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;バックアップファイルの取得&lt;/h4&gt;</t>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に「コース 設定 …」がありますが、さらにその下の操作メニューが「インポート」となっているのを確認します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新コースにコピーするセクションや項目を選択します
+デフォルトですべて選択されているため、チェックマークをクリックすることで選択を外すことができます
+&lt;u&gt;&lt;b&gt;「連絡事項」「コメントシート」は重複しますので、選択しないようにするか、コピー後に重複分を削除してください&lt;/b&gt;&lt;/u&gt;</t>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昨年度のコースのコンテンツを部分的に再利用したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象ファイルの右横に表示されている「ダウンロード」をクリックし、バックアップファイルを取得してください</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミギヨコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="restore"&gt;&lt;/a&gt;コースにリストアする&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ユーザプライベートバックアップエリア」に確認したファイル名のバックアップファイルが表示されていることを確認します</t>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「リストアを実行する」をクリックします</t>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「続ける」をクリックします</t>
+    <rPh sb="1" eb="2">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名などを旧コースと同じものにしたい場合は、「コース設定を上書きする」を「Yes」に変更してください
+&lt;u&gt;&lt;b&gt;「現在のロールおよび登録を保持する」を「No」に変更すると、コースの編集権限を失いますので、変更しないでください&lt;/u&gt;&lt;/b&gt;</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新コースに旧コースを上書きするか選択します
+新コースにすでにあるコンテンツを&lt;u&gt;削除しない&lt;/u&gt;場合は、「バックアップコースをこのコースに結合する」を
+新コースにあるコンテンツを&lt;u&gt;削除して上書きする&lt;/u&gt;場合は、「このコースのコンテンツを削除してリストアする」を選択し、
+「続ける」をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得したバックアップファイルを新コースの教員に共有してください</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル名に表示されている名前でバックアップファイルがユーザプライベートバックアップエリアに作成されます
+※ファイル名を変更することも可能です
+ファイル名を確認し、「バックアップを実行する」をクリックします</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この後の手順は、新コースの教員が同じか異なるかで手順が変わります
+同じ教員の場合は、&lt;a href="restore"&gt;&lt;b&gt;コースにリストアする&lt;/b&gt;の手順に進んでください</t>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧コースにおいて、項目の「利用制限」の日付設定や、「課題」の締切日時など、日時を設定している場合は注意が必要です 
+新コースにおいては、旧コースで設定された日付がそのまま引き継がれるわけではありません
+ 新コースの該当箇所に設定されるのは、次のような日時です</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>backup1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に「コース 設定 …」がありますが、さらにその下の操作メニューをクリックし、「リストア」を選択します
+&lt;ul&gt;
+&lt;li&gt;新旧コースの教員が異なる場合（バックアップファイルをインストールする場合）
+&lt;br&gt;「バックアップファイルをインポートする」の「ファイル」に共有されたバックアップファイルをドラッグ＆ドロップして追加してください&lt;br&gt;追加できたら「リストア」をクリックします&lt;/li&gt;
+&lt;li&gt;新旧コースの教員が同じ場合（ユーザプライベートバックアップエリアからインストールする場合）
+&lt;br&gt;「ユーザプライベートバックアップエリア」に確認したファイル名のバックアップファイルが表示されていることを確認します
+&lt;br&gt;対象ファイルの右横に表示されている「リストア」をクリックします&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="51" eb="53">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>restore1.png</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,12 +845,6 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -486,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -807,10 +1218,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.3984375" customWidth="1"/>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -866,9 +1277,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -938,9 +1349,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1016,9 +1427,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1026,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1116,12 +1527,12 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1155,7 +1566,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="26.4">
+    <row r="6" spans="1:7" ht="27">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -1167,7 +1578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="105.6">
+    <row r="7" spans="1:7" ht="108">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -1202,9 +1613,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1275,9 +1686,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1337,13 +1748,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941222FB-E55A-47CC-B5A1-F5E77124EF18}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1378,76 +1791,77 @@
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="69.599999999999994" customHeight="1">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="60.6" customHeight="1">
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="69.599999999999994" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="67.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="26.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="40.5">
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -1455,55 +1869,56 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" ht="27">
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="39.6">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="40.5">
       <c r="B24" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="26.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="360">
-      <c r="B26" s="9" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="297">
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C020CB47-0798-4D2D-8049-474B7F8F9449}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1538,46 +1953,217 @@
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="66">
+    <row r="6" spans="1:4" ht="67.5">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="94.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
+      <c r="B8" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27">
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="40.5">
+      <c r="B17" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="27">
+      <c r="B18" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="121.5">
+      <c r="B30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="54">
+      <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="40.5">
+      <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="40.5">
+      <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="297">
+      <c r="B43" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1586,12 +2172,12 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1599,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1628,17 +2214,17 @@
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="66">
+    <row r="6" spans="1:4" ht="67.5">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="39.6">
+    <row r="7" spans="1:4" ht="40.5">
       <c r="B7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -1650,21 +2236,21 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="79.2">
+    <row r="11" spans="1:4" ht="81">
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1672,57 +2258,57 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="26.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="40.5">
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:2">
@@ -1730,27 +2316,27 @@
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="39.6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="40.5">
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" ht="26.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="27">
       <c r="B28" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="360">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="375">
       <c r="B29" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1768,9 +2354,9 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1778,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1848,15 +2434,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9652E4E-CF8A-4811-A77C-0CF613F4D6EB}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1864,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1889,31 +2475,32 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="20.399999999999999">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
-        <v>42</v>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="31.5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="7"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
@@ -1921,6 +2508,11 @@
       <c r="B10" s="7"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B9094C-02EA-46C9-9AC7-FE325234803B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C7971D-85B1-47D2-AC6B-A59C901C7648}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4680" activeTab="5" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
   <si>
     <t>header1</t>
   </si>
@@ -186,45 +186,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>２０２２年4月1日0:00開設の旧コースの項目を、2種類の新コースにインポートした場合、項目に設定されている日付がどのようになるか、具体例を表にまとめました。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;table border="1"&gt;
-    &lt;tr&gt;
-      &lt;th&gt;コース&lt;/th&gt;
-      &lt;th&gt;旧コース&lt;/th&gt;
-      &lt;th&gt;新コースA&lt;/th&gt;
-      &lt;th&gt;新コースB&lt;/th&gt;
-    &lt;/tr&gt;
-    &lt;tr&gt;
-      &lt;th&gt;開設日時&lt;/th&gt;
-      &lt;td&gt;2022年4月1日0:00&lt;/td&gt;
-      &lt;td&gt;2023年4月1日0:00&lt;/td&gt;
-      &lt;td&gt;2023年4月1日0:00&lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;tr&gt;
-      &lt;th&gt;課題終了日時&lt;/th&gt;
-      &lt;td&gt;2022年4月19日0:00	&lt;/td&gt;
-      &lt;td&gt;2023年4月19日0:00&lt;/td&gt;
-      &lt;td&gt;2023年5月8日0:00&lt;/td&gt;
-    &lt;/tr&gt;
-  &lt;/table&gt;</t>
-    <rPh sb="58" eb="59">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>旧コースのコンテンツを、新コースにインポートするやり方を説明します。
 事前にインポート先のコースを準備する必要があります。
 自動作成のコースにインポートすることができます。インポート時に、再利用する項目を絞り込むことができます。</t>
@@ -362,8 +323,356 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>&lt;h3&gt;&lt;a name="reuse"&gt;&lt;/a&gt;コースのコンテンツを再利用する方法&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>eラーニング支援室では最も手軽に行えるインポートを推奨しています。
+ここでは&lt;b&gt;コースのコンテンツをインポートする方法&lt;/b&gt;を説明します。
+この方法は、事前にインポート先のコースを準備する必要があります。
+自動作成のコースにインポートすることができます。インポート時に、再利用する項目を絞り込むことができます。
+部分的な再利用をご希望の方は、&lt;a href="p6.html"&gt;昨年度のコースのコンテンツを部分的に再利用したい&lt;/a&gt;をご確認ください。</t>
+    <rPh sb="6" eb="9">
+      <t>シエンシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;コースをバックアップする&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>eラーニング支援室では最も手軽に行えるインポートを推奨しています。
+インポートの方法は、&lt;a href="p4.html"&gt;こちら&lt;/a&gt;をご確認ください。</t>
+    <rPh sb="6" eb="9">
+      <t>シエンシツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここでは&lt;b&gt;コースのバックアップを取得し、リストアする方法&lt;/b&gt;を説明します。
+旧コースでバックアップを作成し、新コースにリストアするやり方です。
+登録されている教員が異なるコース間でコースの内容を共通にしたい場合に便利です。
+事前にリストアするコースを準備する必要があります。自動作成のコースにリストアすることができます。
+ 旧コースでのバックアップ時、新コースでのリストア時それぞれで、対象とする項目を選択できます。
+またリストア時には、新コースのコース設定に旧コースのものを上書きするかどうかも選択することができます。
+この上書き設定を誤ると、&lt;u&gt;&lt;b&gt;コースの編集権限を失うことがあります&lt;/u&gt;&lt;/b&gt;ので注意が必要です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に「コース 設定 …」がありますが、その下の操作メニューをクリックし、「バックアップ」を選択します</t>
+    <rPh sb="50" eb="52">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「次へ」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新コースにコピーするセクションや項目を選択します
+デフォルトですべて選択されているため、チェックマークをクリックすることで選択を外すことができます</t>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「続ける」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧コースに入り、コース名の下の「さらに v」をクリックし「コース再利用」をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新コースに入り、使用するテンプレートを選びます（初めて使うコースの場合）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下の「さらに v」をクリックし「コース再利用」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;教員が異なるコース間で共有をする場合&lt;/h3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;バックアップファイルの取得&lt;/h4&gt;</t>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に「コース 設定 …」がありますが、さらにその下の操作メニューが「インポート」となっているのを確認します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新コースにコピーするセクションや項目を選択します
+デフォルトですべて選択されているため、チェックマークをクリックすることで選択を外すことができます
+&lt;u&gt;&lt;b&gt;「連絡事項」「コメントシート」は重複しますので、選択しないようにするか、コピー後に重複分を削除してください&lt;/b&gt;&lt;/u&gt;</t>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昨年度のコースのコンテンツを部分的に再利用したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象ファイルの右横に表示されている「ダウンロード」をクリックし、バックアップファイルを取得してください</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミギヨコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="restore"&gt;&lt;/a&gt;コースにリストアする&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ユーザプライベートバックアップエリア」に確認したファイル名のバックアップファイルが表示されていることを確認します</t>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「リストアを実行する」をクリックします</t>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「続ける」をクリックします</t>
+    <rPh sb="1" eb="2">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名などを旧コースと同じものにしたい場合は、「コース設定を上書きする」を「Yes」に変更してください
+&lt;u&gt;&lt;b&gt;「現在のロールおよび登録を保持する」を「No」に変更すると、コースの編集権限を失いますので、変更しないでください&lt;/u&gt;&lt;/b&gt;</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新コースに旧コースを上書きするか選択します
+新コースにすでにあるコンテンツを&lt;u&gt;削除しない&lt;/u&gt;場合は、「バックアップコースをこのコースに結合する」を
+新コースにあるコンテンツを&lt;u&gt;削除して上書きする&lt;/u&gt;場合は、「このコースのコンテンツを削除してリストアする」を選択し、
+「続ける」をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得したバックアップファイルを新コースの教員に共有してください</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル名に表示されている名前でバックアップファイルがユーザプライベートバックアップエリアに作成されます
+※ファイル名を変更することも可能です
+ファイル名を確認し、「バックアップを実行する」をクリックします</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧コースにおいて、項目の「利用制限」の日付設定や、「課題」の締切日時など、日時を設定している場合は注意が必要です 
+新コースにおいては、旧コースで設定された日付がそのまま引き継がれるわけではありません
+ 新コースの該当箇所に設定されるのは、次のような日時です</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>backup1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>restore1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>２０２２年4月1日0:00開設の旧コースの項目を、2種類の新コースにインポートした場合、項目に設定されている日付がどのようになるか、具体例を表にまとめました。
- &lt;table border="1" WIDTH=30&gt;
+ &lt;table border="1" width=150&gt;
     &lt;tr&gt;
       &lt;th bgcolor="#f5f5f5"&gt;コース&lt;/th&gt;
       &lt;th bgcolor="#f5f5f5"&gt;旧コース&lt;/th&gt;
@@ -386,384 +695,35 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="reuse"&gt;&lt;/a&gt;コースのコンテンツを再利用する方法&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>eラーニング支援室では最も手軽に行えるインポートを推奨しています。
-ここでは&lt;b&gt;コースのコンテンツをインポートする方法&lt;/b&gt;を説明します。
-この方法は、事前にインポート先のコースを準備する必要があります。
-自動作成のコースにインポートすることができます。インポート時に、再利用する項目を絞り込むことができます。
-部分的な再利用をご希望の方は、&lt;a href="p6.html"&gt;昨年度のコースのコンテンツを部分的に再利用したい&lt;/a&gt;をご確認ください。</t>
-    <rPh sb="6" eb="9">
-      <t>シエンシツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;コースをバックアップする&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>eラーニング支援室では最も手軽に行えるインポートを推奨しています。
-インポートの方法は、&lt;a href="p4.html"&gt;こちら&lt;/a&gt;をご確認ください。</t>
-    <rPh sb="6" eb="9">
-      <t>シエンシツ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ここでは&lt;b&gt;コースのバックアップを取得し、リストアする方法&lt;/b&gt;を説明します。
-旧コースでバックアップを作成し、新コースにリストアするやり方です。
-登録されている教員が異なるコース間でコースの内容を共通にしたい場合に便利です。
-事前にリストアするコースを準備する必要があります。自動作成のコースにリストアすることができます。
- 旧コースでのバックアップ時、新コースでのリストア時それぞれで、対象とする項目を選択できます。
-またリストア時には、新コースのコース設定に旧コースのものを上書きするかどうかも選択することができます。
-この上書き設定を誤ると、&lt;u&gt;&lt;b&gt;コースの編集権限を失うことがあります&lt;/u&gt;&lt;/b&gt;ので注意が必要です。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース名の下に「コース 設定 …」がありますが、その下の操作メニューをクリックし、「バックアップ」を選択します</t>
-    <rPh sb="50" eb="52">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「次へ」をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新コースにコピーするセクションや項目を選択します
-デフォルトですべて選択されているため、チェックマークをクリックすることで選択を外すことができます</t>
-    <rPh sb="19" eb="21">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ハズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「続ける」をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>旧コースに入り、コース名の下の「さらに v」をクリックし「コース再利用」をクリックします</t>
-    <rPh sb="0" eb="1">
-      <t>キュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新コースに入り、使用するテンプレートを選びます（初めて使うコースの場合）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース名の下の「さらに v」をクリックし「コース再利用」をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;教員が異なるコース間で共有をする場合&lt;/h3&gt;</t>
-    <rPh sb="4" eb="6">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;バックアップファイルの取得&lt;/h4&gt;</t>
-    <rPh sb="15" eb="17">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース名の下に「コース 設定 …」がありますが、さらにその下の操作メニューが「インポート」となっているのを確認します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新コースにコピーするセクションや項目を選択します
-デフォルトですべて選択されているため、チェックマークをクリックすることで選択を外すことができます
-&lt;u&gt;&lt;b&gt;「連絡事項」「コメントシート」は重複しますので、選択しないようにするか、コピー後に重複分を削除してください&lt;/b&gt;&lt;/u&gt;</t>
-    <rPh sb="19" eb="21">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ハズ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>昨年度のコースのコンテンツを部分的に再利用したい</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>対象ファイルの右横に表示されている「ダウンロード」をクリックし、バックアップファイルを取得してください</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ミギヨコ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="restore"&gt;&lt;/a&gt;コースにリストアする&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ユーザプライベートバックアップエリア」に確認したファイル名のバックアップファイルが表示されていることを確認します</t>
-    <rPh sb="21" eb="23">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「リストアを実行する」をクリックします</t>
-    <rPh sb="6" eb="8">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「続ける」をクリックします</t>
-    <rPh sb="1" eb="2">
-      <t>ツヅ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース名などを旧コースと同じものにしたい場合は、「コース設定を上書きする」を「Yes」に変更してください
-&lt;u&gt;&lt;b&gt;「現在のロールおよび登録を保持する」を「No」に変更すると、コースの編集権限を失いますので、変更しないでください&lt;/u&gt;&lt;/b&gt;</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ウワガ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新コースに旧コースを上書きするか選択します
-新コースにすでにあるコンテンツを&lt;u&gt;削除しない&lt;/u&gt;場合は、「バックアップコースをこのコースに結合する」を
-新コースにあるコンテンツを&lt;u&gt;削除して上書きする&lt;/u&gt;場合は、「このコースのコンテンツを削除してリストアする」を選択し、
-「続ける」をクリックします</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ウワガ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ウワガ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>ツヅ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取得したバックアップファイルを新コースの教員に共有してください</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キョウユウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ファイル名に表示されている名前でバックアップファイルがユーザプライベートバックアップエリアに作成されます
-※ファイル名を変更することも可能です
-ファイル名を確認し、「バックアップを実行する」をクリックします</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>この後の手順は、新コースの教員が同じか異なるかで手順が変わります
-同じ教員の場合は、&lt;a href="restore"&gt;&lt;b&gt;コースにリストアする&lt;/b&gt;の手順に進んでください</t>
-    <rPh sb="2" eb="3">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>旧コースにおいて、項目の「利用制限」の日付設定や、「課題」の締切日時など、日時を設定している場合は注意が必要です 
-新コースにおいては、旧コースで設定された日付がそのまま引き継がれるわけではありません
- 新コースの該当箇所に設定されるのは、次のような日時です</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>backup1.png</t>
+    <t>２０２２年4月1日0:00開設の旧コースの項目を、2種類の新コースにインポートした場合、項目に設定されている日付がどのようになるか、具体例を表にまとめました。
+ &lt;table border="1" width=300&gt;
+    &lt;tr&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;コース&lt;/th&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;旧コース&lt;/th&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;新コースA&lt;/th&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;新コースB&lt;/th&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;開設日時&lt;/th&gt;
+      &lt;td&gt;2022年4月1日0:00&lt;/td&gt;
+      &lt;td&gt;2023年4月1日0:00&lt;/td&gt;
+      &lt;td&gt;2023年4月1日0:00&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;th bgcolor="#f5f5f5"&gt;課題終了日時&lt;/th&gt;
+      &lt;td&gt;2022年4月19日0:00	&lt;/td&gt;
+      &lt;td&gt;2023年4月19日0:00&lt;/td&gt;
+      &lt;td&gt;2023年5月8日0:00&lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/table&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>コース名の下に「コース 設定 …」がありますが、さらにその下の操作メニューをクリックし、「リストア」を選択します
 &lt;ul&gt;
-&lt;li&gt;新旧コースの教員が異なる場合（バックアップファイルをインストールする場合）
+&lt;li&gt;&lt;b&gt;新旧コースの教員が異なる場合（バックアップファイルをインストールする場合）&lt;/b&gt;
 &lt;br&gt;「バックアップファイルをインポートする」の「ファイル」に共有されたバックアップファイルをドラッグ＆ドロップして追加してください&lt;br&gt;追加できたら「リストア」をクリックします&lt;/li&gt;
-&lt;li&gt;新旧コースの教員が同じ場合（ユーザプライベートバックアップエリアからインストールする場合）
+&lt;li&gt;&lt;b&gt;新旧コースの教員が同じ場合（ユーザプライベートバックアップエリアからインストールする場合）&lt;/b&gt;
 &lt;br&gt;「ユーザプライベートバックアップエリア」に確認したファイル名のバックアップファイルが表示されていることを確認します
 &lt;br&gt;対象ファイルの右横に表示されている「リストア」をクリックします&lt;/li&gt;
 &lt;/ul&gt;</t>
@@ -773,7 +733,32 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>restore1.png</t>
+    <t>この後の手順は、新コースの教員が同じか異なるかで手順が変わります
+同じ教員の場合は、&lt;a href="#restore"&gt;&lt;b&gt;コースにリストアする&lt;/b&gt;&lt;/a&gt;の手順に進んでください</t>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1750,7 +1735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941222FB-E55A-47CC-B5A1-F5E77124EF18}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1794,13 +1779,13 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="69.599999999999994" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -1808,7 +1793,7 @@
     <row r="8" spans="1:4" ht="67.5">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -1826,7 +1811,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1836,7 +1821,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1856,7 +1841,7 @@
     </row>
     <row r="17" spans="2:2" ht="40.5">
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -1871,7 +1856,7 @@
     </row>
     <row r="20" spans="2:2" ht="27">
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:2">
@@ -1887,7 +1872,7 @@
     </row>
     <row r="24" spans="2:2" ht="40.5">
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:2">
@@ -1897,7 +1882,7 @@
     </row>
     <row r="26" spans="2:2" ht="297">
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:2">
@@ -1956,7 +1941,7 @@
     <row r="6" spans="1:4" ht="67.5">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -1964,7 +1949,7 @@
     <row r="7" spans="1:4" ht="27">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -1972,7 +1957,7 @@
     <row r="8" spans="1:4" ht="94.5">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -1986,55 +1971,55 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27">
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="40.5">
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="27">
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -2042,32 +2027,32 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -2075,63 +2060,63 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="121.5">
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="54">
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="40.5">
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="2:2">
@@ -2147,7 +2132,7 @@
     </row>
     <row r="41" spans="2:2" ht="40.5">
       <c r="B41" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -2157,7 +2142,7 @@
     </row>
     <row r="43" spans="2:2" ht="297">
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2169,10 +2154,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -2185,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2217,14 +2202,14 @@
     <row r="6" spans="1:4" ht="67.5">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="40.5">
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2250,7 +2235,7 @@
     </row>
     <row r="11" spans="1:4" ht="81">
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2268,7 +2253,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2288,7 +2273,7 @@
     </row>
     <row r="19" spans="2:2" ht="40.5">
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -2329,14 +2314,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="27">
+    <row r="28" spans="2:2" ht="297">
       <c r="B28" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="375">
-      <c r="B29" s="9" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2480,7 +2460,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -2488,14 +2468,14 @@
     <row r="7" spans="1:4" ht="31.5">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C7971D-85B1-47D2-AC6B-A59C901C7648}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ECAB6F-E572-4FCB-849B-A1520130B98D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4680" activeTab="5" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
   <si>
     <t>header1</t>
   </si>
@@ -565,52 +565,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新コースに旧コースを上書きするか選択します
-新コースにすでにあるコンテンツを&lt;u&gt;削除しない&lt;/u&gt;場合は、「バックアップコースをこのコースに結合する」を
-新コースにあるコンテンツを&lt;u&gt;削除して上書きする&lt;/u&gt;場合は、「このコースのコンテンツを削除してリストアする」を選択し、
-「続ける」をクリックします</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ウワガ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ウワガ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>ツヅ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>取得したバックアップファイルを新コースの教員に共有してください</t>
     <rPh sb="0" eb="2">
       <t>シュトク</t>
@@ -671,8 +625,37 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>この後の手順は、新コースの教員が同じか異なるかで手順が変わります
+同じ教員の場合は、&lt;a href="#restore"&gt;&lt;b&gt;コースにリストアする&lt;/b&gt;&lt;/a&gt;の手順に進んでください</t>
+    <rPh sb="2" eb="3">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>２０２２年4月1日0:00開設の旧コースの項目を、2種類の新コースにインポートした場合、項目に設定されている日付がどのようになるか、具体例を表にまとめました。
- &lt;table border="1" width=150&gt;
+ &lt;table border="1"&gt;
     &lt;tr&gt;
       &lt;th bgcolor="#f5f5f5"&gt;コース&lt;/th&gt;
       &lt;th bgcolor="#f5f5f5"&gt;旧コース&lt;/th&gt;
@@ -695,35 +678,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>２０２２年4月1日0:00開設の旧コースの項目を、2種類の新コースにインポートした場合、項目に設定されている日付がどのようになるか、具体例を表にまとめました。
- &lt;table border="1" width=300&gt;
-    &lt;tr&gt;
-      &lt;th bgcolor="#f5f5f5"&gt;コース&lt;/th&gt;
-      &lt;th bgcolor="#f5f5f5"&gt;旧コース&lt;/th&gt;
-      &lt;th bgcolor="#f5f5f5"&gt;新コースA&lt;/th&gt;
-      &lt;th bgcolor="#f5f5f5"&gt;新コースB&lt;/th&gt;
-    &lt;/tr&gt;
-    &lt;tr&gt;
-      &lt;th bgcolor="#f5f5f5"&gt;開設日時&lt;/th&gt;
-      &lt;td&gt;2022年4月1日0:00&lt;/td&gt;
-      &lt;td&gt;2023年4月1日0:00&lt;/td&gt;
-      &lt;td&gt;2023年4月1日0:00&lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;tr&gt;
-      &lt;th bgcolor="#f5f5f5"&gt;課題終了日時&lt;/th&gt;
-      &lt;td&gt;2022年4月19日0:00	&lt;/td&gt;
-      &lt;td&gt;2023年4月19日0:00&lt;/td&gt;
-      &lt;td&gt;2023年5月8日0:00&lt;/td&gt;
-    &lt;/tr&gt;
-  &lt;/table&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コース名の下に「コース 設定 …」がありますが、さらにその下の操作メニューをクリックし、「リストア」を選択します
 &lt;ul&gt;
-&lt;li&gt;&lt;b&gt;新旧コースの教員が異なる場合（バックアップファイルをインストールする場合）&lt;/b&gt;
+&lt;li&gt;&lt;b&gt;新コースの教員が異なる場合（バックアップファイルをインストールする場合）&lt;/b&gt;
 &lt;br&gt;「バックアップファイルをインポートする」の「ファイル」に共有されたバックアップファイルをドラッグ＆ドロップして追加してください&lt;br&gt;追加できたら「リストア」をクリックします&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;新旧コースの教員が同じ場合（ユーザプライベートバックアップエリアからインストールする場合）&lt;/b&gt;
+&lt;li&gt;&lt;b&gt;旧コースの教員が同じ場合（ユーザプライベートバックアップエリアからインストールする場合）&lt;/b&gt;
 &lt;br&gt;「ユーザプライベートバックアップエリア」に確認したファイル名のバックアップファイルが表示されていることを確認します
 &lt;br&gt;対象ファイルの右横に表示されている「リストア」をクリックします&lt;/li&gt;
 &lt;/ul&gt;</t>
@@ -733,31 +692,47 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>この後の手順は、新コースの教員が同じか異なるかで手順が変わります
-同じ教員の場合は、&lt;a href="#restore"&gt;&lt;b&gt;コースにリストアする&lt;/b&gt;&lt;/a&gt;の手順に進んでください</t>
-    <rPh sb="2" eb="3">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
+    <t>新コースに旧コースを上書きするか選択します
+新コースにすでにあるコンテンツを&lt;u&gt;削除しない&lt;/u&gt;場合は、「バックアップコースをこのコースに結合する」を
+新コースにあるコンテンツを&lt;u&gt;削除して上書きする&lt;/u&gt;場合は、「このコースのコンテンツを削除してリストアする」を選択し、「続ける」をクリックします</t>
+    <rPh sb="0" eb="1">
       <t>シン</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>カ</t>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ツヅ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1735,9 +1710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941222FB-E55A-47CC-B5A1-F5E77124EF18}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
@@ -1994,7 +1967,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2014,12 +1987,12 @@
     </row>
     <row r="17" spans="2:4" ht="40.5">
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="27">
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -2052,7 +2025,7 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -2075,13 +2048,13 @@
     </row>
     <row r="30" spans="2:4" ht="121.5">
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -2091,7 +2064,7 @@
     </row>
     <row r="32" spans="2:4" ht="54">
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -2132,7 +2105,7 @@
     </row>
     <row r="41" spans="2:2" ht="40.5">
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -2156,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -2316,7 +2289,7 @@
     </row>
     <row r="28" spans="2:2" ht="297">
       <c r="B28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ECAB6F-E572-4FCB-849B-A1520130B98D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA40C4D3-0A14-482C-8E29-0802DF36B979}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4680" activeTab="5" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4680" activeTab="8" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="86">
   <si>
     <t>header1</t>
   </si>
@@ -186,15 +186,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>旧コースのコンテンツを、新コースにインポートするやり方を説明します。
-事前にインポート先のコースを準備する必要があります。
-自動作成のコースにインポートすることができます。インポート時に、再利用する項目を絞り込むことができます。</t>
-    <rPh sb="28" eb="30">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>昨年度のコースのコンテンツを今年度のコースで再利用するには、以下の方法で実現することができます。
 &lt;ul&gt;
 &lt;li&gt;&lt;b&gt;コースのコンテンツをインポートする方法（推奨）&lt;/b&gt;&lt;/li&gt;
@@ -248,16 +239,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>旧コースをコピーして、新コースを作成するやり方です。
-事前にコピー先のコースを用意する必要はありませんが、既存のコースをコピー先に指定することはできません。
-また、旧コースの項目の中で、再利用したい項目を絞り込んでコピーするむこともできません。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>この方法は、旧コースと全く同じ内容のコースを作成したい場合に便利です。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>セクションごとインポートするという作業を行います。
 この時moodleは、インポートするセクションが上から何番目にあるかを判断し、新コースの同じ位置にインポートします。ですので、状況に応じて必ず以下を実施してください。
 ・旧コースのセクションをインポートする新コースのセクションは空にしておく
@@ -327,17 +308,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>eラーニング支援室では最も手軽に行えるインポートを推奨しています。
-ここでは&lt;b&gt;コースのコンテンツをインポートする方法&lt;/b&gt;を説明します。
-この方法は、事前にインポート先のコースを準備する必要があります。
-自動作成のコースにインポートすることができます。インポート時に、再利用する項目を絞り込むことができます。
-部分的な再利用をご希望の方は、&lt;a href="p6.html"&gt;昨年度のコースのコンテンツを部分的に再利用したい&lt;/a&gt;をご確認ください。</t>
-    <rPh sb="6" eb="9">
-      <t>シエンシツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h4&gt;コースをバックアップする&lt;/h4&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -470,10 +440,6 @@
     <rPh sb="125" eb="127">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>昨年度のコースのコンテンツを部分的に再利用したい</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -680,21 +646,30 @@
   <si>
     <t>コース名の下に「コース 設定 …」がありますが、さらにその下の操作メニューをクリックし、「リストア」を選択します
 &lt;ul&gt;
-&lt;li&gt;&lt;b&gt;新コースの教員が異なる場合（バックアップファイルをインストールする場合）&lt;/b&gt;
+&lt;li&gt;&lt;b&gt;新コースは異なる教員の場合（バックアップファイルをインストールする場合）&lt;/b&gt;
 &lt;br&gt;「バックアップファイルをインポートする」の「ファイル」に共有されたバックアップファイルをドラッグ＆ドロップして追加してください&lt;br&gt;追加できたら「リストア」をクリックします&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;旧コースの教員が同じ場合（ユーザプライベートバックアップエリアからインストールする場合）&lt;/b&gt;
+&lt;li&gt;&lt;b&gt;新コースも同じ教員の場合（ユーザプライベートバックアップエリアからインストールする場合）&lt;/b&gt;
 &lt;br&gt;「ユーザプライベートバックアップエリア」に確認したファイル名のバックアップファイルが表示されていることを確認します
 &lt;br&gt;対象ファイルの右横に表示されている「リストア」をクリックします&lt;/li&gt;
 &lt;/ul&gt;</t>
     <rPh sb="51" eb="53">
       <t>センタク</t>
     </rPh>
+    <rPh sb="74" eb="75">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="214" eb="215">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>オナ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>新コースに旧コースを上書きするか選択します
 新コースにすでにあるコンテンツを&lt;u&gt;削除しない&lt;/u&gt;場合は、「バックアップコースをこのコースに結合する」を
-新コースにあるコンテンツを&lt;u&gt;削除して上書きする&lt;/u&gt;場合は、「このコースのコンテンツを削除してリストアする」を選択し、「続ける」をクリックします</t>
+新コースにすでにあるコンテンツを&lt;u&gt;削除する&lt;/u&gt;場合は、「このコースのコンテンツを削除してリストアする」を選択し、「続ける」をクリックします</t>
     <rPh sb="0" eb="1">
       <t>シン</t>
     </rPh>
@@ -719,20 +694,203 @@
     <rPh sb="78" eb="79">
       <t>シン</t>
     </rPh>
-    <rPh sb="94" eb="96">
+    <rPh sb="97" eb="99">
       <t>サクジョ</t>
     </rPh>
-    <rPh sb="98" eb="100">
-      <t>ウワガ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
+    <rPh sb="105" eb="107">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="136" eb="138">
+    <rPh sb="134" eb="136">
       <t>センタク</t>
     </rPh>
-    <rPh sb="141" eb="142">
+    <rPh sb="139" eb="140">
       <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="reuse"&gt;&lt;/a&gt;コースのコンテンツを部分的に再利用する方法&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>eラーニング支援室では最も手軽に行えるインポートを推奨しています。
+ここでは&lt;b&gt;コースのコンテンツをインポートする方法&lt;/b&gt;を説明します。
+この方法は事前にインポート先のコースを準備する必要があります。
+自動作成のコースにもインポート可能です。</t>
+    <rPh sb="119" eb="121">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>eラーニング支援室では最も手軽に行えるインポートを推奨しています。
+ここでは&lt;b&gt;コースのコンテンツをインポートする方法&lt;/b&gt;を説明します。
+この方法は、事前にインポート先のコースを準備する必要があります。自動作成のコースにもインポート可能です。
+またインポート時に、再利用する項目を絞り込むことができます。
+部分的な再利用をご希望の方は、&lt;a href="p6.html"&gt;昨年度のコースのコンテンツを部分的に再利用したい&lt;/a&gt;をご確認ください。</t>
+    <rPh sb="6" eb="9">
+      <t>シエンシツ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧コースをコピーして、新コースを作成するやり方です。
+事前にコピー先のコースを用意する必要はありませんが、既存のコースをコピー先に指定することはできません。
+また、旧コースの項目の中で、再利用したい項目を絞り込んでコピーするむこともできません。
+この方法は、旧コースと全く同じ内容のコースを作成したい場合に便利です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースコピーをする&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上のユーザアイコンの右に表示されている「v」をクリックし、「プレファレンス」を選択します</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「その他」の中にある「コースの管理」をクリックします</t>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コピー元のコース名の右横に表示されている「コピー」をクリックします</t>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミギヨコ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「コースをコピーする」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステータスがチェックマークになればコピー完了です</t>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「長いコース名」、「コース省略名」を入力してください
+コースカテゴリは旧コースと同じカテゴリ以外を選択できないため、コピー後に変更します</t>
+    <rPh sb="1" eb="2">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショウリャクメイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="date"&gt;&lt;/a&gt;コースカテゴリの設定&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宛先に表示されている新コース名をクリックします
+※画面を移動してしまった場合は、新コースに入ってください</t>
+    <rPh sb="0" eb="2">
+      <t>アテサキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下の「設定」をクリックします</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースカテゴリを変更し、「保存して表示する」をクリックします</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1710,427 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941222FB-E55A-47CC-B5A1-F5E77124EF18}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="69.599999999999994" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="67.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="40.5">
-      <c r="B17" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="27">
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="40.5">
-      <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="297">
-      <c r="B26" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C020CB47-0798-4D2D-8049-474B7F8F9449}">
-  <dimension ref="A1:D43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="67.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="27">
-      <c r="A7" s="1"/>
-      <c r="B7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="94.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27">
-      <c r="B15" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="40.5">
-      <c r="B17" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="27">
-      <c r="B18" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="121.5">
-      <c r="B30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="54">
-      <c r="B32" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="40.5">
-      <c r="B34" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="40.5">
-      <c r="B41" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="297">
-      <c r="B43" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -2143,7 +1882,436 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="69.599999999999994" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="67.5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="40.5">
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="27">
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="40.5">
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="297">
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C020CB47-0798-4D2D-8049-474B7F8F9449}">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="67.5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="27">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="94.5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27">
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="40.5">
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="27">
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="121.5">
+      <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="54">
+      <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="40.5">
+      <c r="B35" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="40.5">
+      <c r="B42" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="297">
+      <c r="B44" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2172,124 +2340,130 @@
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="67.5">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="40.5">
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="67.5">
+      <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="7"/>
+    <row r="8" spans="1:4" ht="54">
+      <c r="B8" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="81">
+    <row r="11" spans="1:4">
       <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="81">
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="40.5">
-      <c r="B19" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" ht="40.5">
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2"/>
-    </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="40.5">
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="2:2" ht="40.5">
+      <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="297">
-      <c r="B28" s="2" t="s">
-        <v>73</v>
+    <row r="29" spans="2:2" ht="297">
+      <c r="B29" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2317,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2387,11 +2561,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9652E4E-CF8A-4811-A77C-0CF613F4D6EB}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
@@ -2433,39 +2605,115 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="31.5">
+    <row r="7" spans="1:4" ht="42">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
+      <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="7"/>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="27">
+      <c r="B13" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="27">
+      <c r="B18" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="40.5">
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="297">
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA40C4D3-0A14-482C-8E29-0802DF36B979}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729CBF61-4324-4C8A-A8C5-6C4571F9EF1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4680" activeTab="8" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4680" activeTab="11" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="111">
   <si>
     <t>header1</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>昨年度のコースのコンテンツを再利用したい</t>
-  </si>
-  <si>
-    <t>広大で作ったコンテンツを他大学でも使いたい</t>
   </si>
   <si>
     <t>他大学で作ったコンテンツを広大でも使いたい</t>
@@ -186,44 +183,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>昨年度のコースのコンテンツを今年度のコースで再利用するには、以下の方法で実現することができます。
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;コースのコンテンツをインポートする方法（推奨）&lt;/b&gt;&lt;/li&gt;
-&lt;li&gt;コースのバックアップを取得し、リストアする方法&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <rPh sb="0" eb="3">
-      <t>サクネンド</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>コンネンド</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>サイリヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジツゲン</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>スイショウ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="backup"&gt;&lt;/a&gt;コースのバックアップを取得し、リストアする方法&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -233,26 +192,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 新コースに入り、使用するテンプレートを選びます（初めて使うコースの場合）</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;コースコピーについて&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>セクションごとインポートするという作業を行います。
-この時moodleは、インポートするセクションが上から何番目にあるかを判断し、新コースの同じ位置にインポートします。ですので、状況に応じて必ず以下を実施してください。
-・旧コースのセクションをインポートする新コースのセクションは空にしておく
-・旧コースのセクション内にサブセクションがある場合、インポート前に新コースの読み込み先セクションにも同じ構成のサブセクションを作っておく</t>
-    <rPh sb="89" eb="91">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>「続ける」をクリックします
@@ -320,16 +259,6 @@
     <rPh sb="40" eb="42">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ここでは&lt;b&gt;コースのバックアップを取得し、リストアする方法&lt;/b&gt;を説明します。
-旧コースでバックアップを作成し、新コースにリストアするやり方です。
-登録されている教員が異なるコース間でコースの内容を共通にしたい場合に便利です。
-事前にリストアするコースを準備する必要があります。自動作成のコースにリストアすることができます。
- 旧コースでのバックアップ時、新コースでのリストア時それぞれで、対象とする項目を選択できます。
-またリストア時には、新コースのコース設定に旧コースのものを上書きするかどうかも選択することができます。
-この上書き設定を誤ると、&lt;u&gt;&lt;b&gt;コースの編集権限を失うことがあります&lt;/u&gt;&lt;/b&gt;ので注意が必要です。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -715,16 +644,6 @@
   <si>
     <t>eラーニング支援室では最も手軽に行えるインポートを推奨しています。
 ここでは&lt;b&gt;コースのコンテンツをインポートする方法&lt;/b&gt;を説明します。
-この方法は事前にインポート先のコースを準備する必要があります。
-自動作成のコースにもインポート可能です。</t>
-    <rPh sb="119" eb="121">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>eラーニング支援室では最も手軽に行えるインポートを推奨しています。
-ここでは&lt;b&gt;コースのコンテンツをインポートする方法&lt;/b&gt;を説明します。
 この方法は、事前にインポート先のコースを準備する必要があります。自動作成のコースにもインポート可能です。
 またインポート時に、再利用する項目を絞り込むことができます。
 部分的な再利用をご希望の方は、&lt;a href="p6.html"&gt;昨年度のコースのコンテンツを部分的に再利用したい&lt;/a&gt;をご確認ください。</t>
@@ -737,17 +656,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>旧コースをコピーして、新コースを作成するやり方です。
-事前にコピー先のコースを用意する必要はありませんが、既存のコースをコピー先に指定することはできません。
-また、旧コースの項目の中で、再利用したい項目を絞り込んでコピーするむこともできません。
-この方法は、旧コースと全く同じ内容のコースを作成したい場合に便利です。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;コースコピーをする&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>右上のユーザアイコンの右に表示されている「v」をクリックし、「プレファレンス」を選択します</t>
     <rPh sb="0" eb="2">
       <t>ミギウエ</t>
@@ -891,6 +799,436 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースのコピーについて&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースをコピーする&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大で作ったコンテンツを他大学でも使いたい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昨年度のコースのコンテンツを今年度のコースで再利用するには、以下の方法で実現することができます。
+&lt;ul&gt;
+&lt;li&gt;コースのコンテンツをインポートする方法（推奨）&lt;/li&gt;
+&lt;li&gt;コースのバックアップを取得し、リストアする方法&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="0" eb="3">
+      <t>サクネンド</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>コンネンド</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得したバックアップファイルを他大学のmoodleのコースにリストアしてください</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>タダイガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;他大学のmoodleコースにリストアする&lt;/h4&gt;</t>
+    <rPh sb="4" eb="7">
+      <t>タダイガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大moodleと他大学のmoodleは手順が異なる場合がありますので、リストアの手順は他大学のマニュアルまたは窓口にご確認ください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>タダイガク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>タダイガク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大で作ったコンテンツを他大学でも使いたい場合は、コースのバックアップファイルを取得し、そのファイルを他大学のmoodleにリストアすることで使うことができます。
+バックアップファイルはコースのバックアップを行うことで、ダウンロードすることができます。
+バックアップ時、対象とする項目を選択することができます。</t>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>タダイガク</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;コースにリストアする&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コンテンツを他大学で使う方法&lt;/h3&gt;</t>
+    <rPh sb="10" eb="13">
+      <t>タダイガク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;他大学のコンテンツを広大moodleで使う方法&lt;/h3&gt;</t>
+    <rPh sb="14" eb="16">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に「コース 設定 …」がありますが、さらにその下の操作メニューをクリックし、「リストア」を選択します
+「バックアップファイルをインポートする」の「ファイル」に共有されたバックアップファイルをドラッグ＆ドロップして追加してください
+追加できたら「リストア」をクリックします</t>
+    <rPh sb="51" eb="53">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他大学のmoodleのコースでバックアップを行い、バックアップファイルを取得してください</t>
+    <rPh sb="0" eb="3">
+      <t>タダイガク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大moodleと他大学のmoodleは手順が異なる場合がありますので、バックアップの手順は他大学のマニュアルまたは窓口にご確認ください</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>タダイガク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>タダイガク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他大学のコンテンツを広大moodleで使いたい場合は、コースのバックアップファイルを取得し、そのファイルを広大moodleにリストアすることで使うことができます。
+バックアップファイルはコースのバックアップを行うことで、ダウンロードすることができます。
+リストア時には、対象とする項目を選択することや、新コースのコース設定に旧コースのものを上書きするかどうかも選択することができます。
+この上書き設定を誤ると、&lt;u&gt;&lt;b&gt;コースの編集権限を失うことがあります&lt;/u&gt;&lt;/b&gt;ので注意が必要です。
+また、事前にリストアするコースを準備する必要があります。自動作成のコースにリストアすることもできます。</t>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここでは&lt;b&gt;コースのバックアップを取得し、リストアする方法&lt;/b&gt;を説明します。
+旧コースでバックアップを作成し、新コースにリストアするやり方です。
+登録されている教員が異なるコース間でコースの内容を共通にしたい場合に便利です。
+事前にリストアするコースを準備する必要があります。自動作成のコースにリストアすることもできます。
+ 旧コースでのバックアップ時、新コースでのリストア時それぞれで、対象とする項目を選択できます。
+またリストア時には、新コースのコース設定に旧コースのものを上書きするかどうかも選択することができます。
+この上書き設定を誤ると、&lt;u&gt;&lt;b&gt;コースの編集権限を失うことがあります&lt;/u&gt;&lt;/b&gt;ので注意が必要です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>eラーニング支援室では最も手軽に行えるインポートを推奨しています。
+ここでは&lt;b&gt;コースのコンテンツをインポートする方法&lt;/b&gt;を説明します。
+この方法は事前にインポート先のコースを準備する必要があります。
+自動作成のコースへのインポートも可能です。</t>
+    <rPh sb="120" eb="122">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧コースをコピーして、新コースを作成するやり方です。
+事前にコピー先のコースを用意する必要はありませんが、既存のコースをコピー先に指定することはできません。
+また、旧コースの項目の中で、再利用したい項目を絞り込んでコピーすることもできません。
+この方法は、旧コースと全く同じ内容のコースを作成したい場合に便利です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースの初期化について&lt;/h3&gt;</t>
+    <rPh sb="8" eb="11">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;コースをリセットする&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="backup"&gt;&lt;/a&gt;コースをバックアップする&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>moodleは、インポートするセクションが上から何番目にあるかを判断し、新コースの同じ位置にインポートします。ですので、状況に応じて必ず以下を実施してください。
+・旧コースのセクションをインポートする新コースのセクションは空にしておく
+・旧コースのセクション内にサブセクションがある場合、インポート前に新コースの読み込み先セクションにも同じ構成のサブセクションを作っておく</t>
+    <rPh sb="60" eb="62">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に「コース 設定 …」がありますが、その下の操作メニューをクリックし、「リセット」を選択します</t>
+    <rPh sb="48" eb="50">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除したい項目が選択されていることを確認し、「コースをリセットする」をクリックしてください</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>活動やその他の設定を保持しながら、ユーザデータや評定結果をリセットすることができます。
+完全にデータ削除されるため、実施前にバックアップをとってから実行することをおすすめします。
+また、削除項目やユーザロールは選択することができ、一部のデータを保持したままコースから削除することも可能です。</t>
+    <rPh sb="24" eb="26">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ジッシマエ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本的な項目を削除したい場合は、「デフォルトを選択する」をクリックしてください</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他に削除したい項目がある場合は、追加で選択してください</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;コースのデータをバックアップする&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;ユーザデータのバックアップ&lt;/h5&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;評定データのバックアップ&lt;/h5&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除するユーザや各活動のバックアップを取得してください。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;課題データのバックアップ&lt;/h5&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;小テストデータのバックアップ&lt;/h5&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -899,7 +1237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,13 +1288,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック "/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="ＭＳ ゴシック"/>
@@ -986,7 +1317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,13 +1340,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1336,13 +1664,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1358,26 +1686,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -1389,26 +1717,26 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7550A206-2A47-42FD-A6A0-0D0BE341BE00}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1416,41 +1744,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="7"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="7"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.4">
+      <c r="B7" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B8" s="7"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="7"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1461,26 +1861,26 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC7DB3-362D-4077-932E-AAF085409BB7}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1488,47 +1888,138 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" s="7"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="7"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="7"/>
+    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B8" s="7"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="7"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="7"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="297" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1539,26 +2030,24 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1566,77 +2055,152 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="7"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="7"/>
+    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="8"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="7"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="7:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="7:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="7:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G26" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1648,12 +2212,12 @@
       <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +2225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1669,47 +2233,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="27">
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="108">
+    </row>
+    <row r="7" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
@@ -1731,12 +2295,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +2308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1752,37 +2316,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
@@ -1804,12 +2368,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1817,7 +2381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1825,33 +2389,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4"/>
@@ -1868,16 +2432,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941222FB-E55A-47CC-B5A1-F5E77124EF18}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1885,7 +2449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1893,133 +2457,133 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="69.599999999999994" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="67.5">
+    <row r="8" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="7"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="40.5">
-      <c r="B17" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="27">
-      <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="40.5">
+    <row r="24" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="297">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="9"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2033,15 +2597,15 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2049,7 +2613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2057,233 +2621,233 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="67.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="27">
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="94.5">
+    <row r="9" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="2" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27">
-      <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="40.5">
-      <c r="B18" s="2" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B35" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B42" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="297" x14ac:dyDescent="0.15">
+      <c r="B44" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="27">
-      <c r="B19" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="121.5">
-      <c r="B31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="54">
-      <c r="B33" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="40.5">
-      <c r="B35" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="40.5">
-      <c r="B42" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" ht="297">
-      <c r="B44" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2298,23 +2862,23 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2322,148 +2886,148 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="7"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="67.5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="54">
+    <row r="8" spans="1:4" ht="54" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" s="7"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="81">
+    <row r="12" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="40.5">
-      <c r="B20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2" t="s">
+    <row r="27" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="40.5">
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="297">
+    <row r="29" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2478,23 +3042,23 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B7" sqref="B7:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2502,54 +3066,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="7"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="7"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B7" s="7"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
     </row>
   </sheetData>
@@ -2563,22 +3127,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9652E4E-CF8A-4811-A77C-0CF613F4D6EB}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2586,133 +3152,133 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="42">
+    <row r="7" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
-        <v>74</v>
+      <c r="B7" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="10"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="9"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="27">
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="27">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="40.5">
-      <c r="B24" s="2" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="297">
+    <row r="26" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729CBF61-4324-4C8A-A8C5-6C4571F9EF1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFDC7EA-4C8D-4885-A50A-FC4374CD9200}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4680" activeTab="11" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="127">
   <si>
     <t>header1</t>
   </si>
@@ -1108,86 +1108,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>活動やその他の設定を保持しながら、ユーザデータや評定結果をリセットすることができます。
-完全にデータ削除されるため、実施前にバックアップをとってから実行することをおすすめします。
-また、削除項目やユーザロールは選択することができ、一部のデータを保持したままコースから削除することも可能です。</t>
-    <rPh sb="24" eb="26">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カンゼン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="58" eb="61">
-      <t>ジッシマエ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本的な項目を削除したい場合は、「デフォルトを選択する」をクリックしてください</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>他に削除したい項目がある場合は、追加で選択してください</t>
-    <rPh sb="0" eb="1">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h4&gt;コースのデータをバックアップする&lt;/h4&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1203,22 +1123,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>削除するユーザや各活動のバックアップを取得してください。</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h5&gt;課題データのバックアップ&lt;/h5&gt;</t>
     <rPh sb="4" eb="6">
       <t>カダイ</t>
@@ -1229,6 +1133,319 @@
     <t>&lt;h5&gt;小テストデータのバックアップ&lt;/h5&gt;</t>
     <rPh sb="4" eb="5">
       <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「すべてを展開する」をクリックし、削除したい項目を選択してください</t>
+    <rPh sb="5" eb="7">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除するユーザデータや各活動のバックアップを取得してください。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>活動やその他の設定を保持しながら、ユーザデータや評定結果をリセットすることができます。
+完全にデータ削除されるため、実施前にバックアップをとってから実行することをおすすめします。
+また、削除項目やユーザロールは選択することができ、一部のデータを保持したままリセットすることも可能です。</t>
+    <rPh sb="24" eb="26">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ジッシマエ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下の「参加者」をクリックします</t>
+    <rPh sb="8" eb="11">
+      <t>サンカシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下の「評定」をクリックします</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象の課題を開いてください。</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象の小テストを開いてください。</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース内に小テストが複数ある場合は、1つ1つ課題単位でダウンロードする必要があります</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース内に課題が複数ある場合は、1つ1つ課題単位でダウンロードする必要があります</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>userbackup1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すべての参加者が1ページに表示されている場合は、一番左上の□をクリックし、すべての参加者を選択してます
+※すべての参加者が複数ページに分かれて表示されている場合は、参加者一覧の左下に「ユーザすべてを選択する」が表示されますのでクリックし、すべての参加者を選択します
+「選択したユーザに対して…」の選択メニューをクリックし、「テーブルデータをダウンロードする：」の「カンマ区切り(.CSV)」を選択します</t>
+    <rPh sb="4" eb="7">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="82" eb="85">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="123" eb="126">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｃｓｖファイルがダウンロードされますので、バックアップデータとして保管してください</t>
+    <rPh sb="33" eb="35">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に「コース 設定 …」がありますが、その下の操作メニューをクリックし、「エクスポート」を選択します</t>
+    <rPh sb="50" eb="52">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ダウンロード」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;バックアップデータをインポートする場合&lt;/b&gt;は、コース名の下にある「コース 設定 …」のさらに下の操作メニューをクリックし、「登録をインポートする」をクリックします</t>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;バックアップデータをインポートする場合&lt;/b&gt;は、コース名の下に「コース 設定 …」がありますが、その下の操作メニューをクリックし、「インポート」を選択します</t>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「エクスポート形式: 」の右横をクリックし、「プレインテキストファイル」を選択してください
+（データ復旧する際のインポートが簡単です）</t>
+    <rPh sb="13" eb="15">
+      <t>ミギヨコ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>フッキュウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ファイル」にバックアップデータをドラッグ＆ドロップし、「」をクリックします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「セパレータ」は「タブ」を選択してください</t>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ファイル」にバックアップデータをドラッグ＆ドロップし、「評定をアップロードする」をクリックします。</t>
+    <rPh sb="29" eb="31">
+      <t>ヒョウテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1719,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7550A206-2A47-42FD-A6A0-0D0BE341BE00}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1863,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC7DB3-362D-4077-932E-AAF085409BB7}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2030,7 +2247,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2081,7 +2298,7 @@
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2095,7 +2312,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -2107,95 +2324,247 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="4" t="s">
-        <v>107</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
+    <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="4" t="s">
-        <v>110</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="4"/>
+    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="2" t="s">
-        <v>100</v>
-      </c>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G26" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G45" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2209,7 +2578,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2432,7 +2801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941222FB-E55A-47CC-B5A1-F5E77124EF18}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2596,7 +2965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C020CB47-0798-4D2D-8049-474B7F8F9449}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
@@ -2861,7 +3230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFDC7EA-4C8D-4885-A50A-FC4374CD9200}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE594A6-85CC-41E9-908B-122DE609DC26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4680" activeTab="11" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="141">
   <si>
     <t>header1</t>
   </si>
@@ -1062,26 +1062,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h4&gt;コースをリセットする&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h4&gt;&lt;a name="backup"&gt;&lt;/a&gt;コースをバックアップする&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>moodleは、インポートするセクションが上から何番目にあるかを判断し、新コースの同じ位置にインポートします。ですので、状況に応じて必ず以下を実施してください。
-・旧コースのセクションをインポートする新コースのセクションは空にしておく
-・旧コースのセクション内にサブセクションがある場合、インポート前に新コースの読み込み先セクションにも同じ構成のサブセクションを作っておく</t>
-    <rPh sb="60" eb="62">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ジッシ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1108,35 +1089,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h4&gt;コースのデータをバックアップする&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h5&gt;ユーザデータのバックアップ&lt;/h5&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h5&gt;評定データのバックアップ&lt;/h5&gt;</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h5&gt;課題データのバックアップ&lt;/h5&gt;</t>
-    <rPh sb="4" eb="6">
-      <t>カダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h5&gt;小テストデータのバックアップ&lt;/h5&gt;</t>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「すべてを展開する」をクリックし、削除したい項目を選択してください</t>
     <rPh sb="5" eb="7">
       <t>テンカイ</t>
@@ -1153,64 +1105,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>削除するユーザデータや各活動のバックアップを取得してください。</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>活動やその他の設定を保持しながら、ユーザデータや評定結果をリセットすることができます。
-完全にデータ削除されるため、実施前にバックアップをとってから実行することをおすすめします。
-また、削除項目やユーザロールは選択することができ、一部のデータを保持したままリセットすることも可能です。</t>
-    <rPh sb="24" eb="26">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カンゼン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="58" eb="61">
-      <t>ジッシマエ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コース名の下の「参加者」をクリックします</t>
     <rPh sb="8" eb="11">
       <t>サンカシャ</t>
@@ -1247,56 +1141,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース内に小テストが複数ある場合は、1つ1つ課題単位でダウンロードする必要があります</t>
-    <rPh sb="3" eb="4">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース内に課題が複数ある場合は、1つ1つ課題単位でダウンロードする必要があります</t>
-    <rPh sb="3" eb="4">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1395,23 +1239,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;b&gt;バックアップデータをインポートする場合&lt;/b&gt;は、コース名の下にある「コース 設定 …」のさらに下の操作メニューをクリックし、「登録をインポートする」をクリックします</t>
-    <rPh sb="20" eb="22">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;バックアップデータをインポートする場合&lt;/b&gt;は、コース名の下に「コース 設定 …」がありますが、その下の操作メニューをクリックし、「インポート」を選択します</t>
-    <rPh sb="20" eb="22">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「エクスポート形式: 」の右横をクリックし、「プレインテキストファイル」を選択してください
 （データ復旧する際のインポートが簡単です）</t>
     <rPh sb="13" eb="15">
@@ -1432,10 +1259,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「ファイル」にバックアップデータをドラッグ＆ドロップし、「」をクリックします。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「セパレータ」は「タブ」を選択してください</t>
     <rPh sb="13" eb="15">
       <t>センタク</t>
@@ -1446,6 +1269,343 @@
     <t>「ファイル」にバックアップデータをドラッグ＆ドロップし、「評定をアップロードする」をクリックします。</t>
     <rPh sb="29" eb="31">
       <t>ヒョウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースのデータをバックアップする&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;ユーザデータのバックアップ&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;評定データのバックアップ&lt;/h4&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースをリセットする&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下にある「コース 設定 …」のさらに下の操作メニューをクリックし、「登録をインポートする」をクリックします</t>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;バックアップデータをインポートする場合&lt;/h5&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に「コース 設定 …」がありますが、その下の操作メニューをクリックし、「インポート」を選択します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「インポートファイル」にバックアップデータをドラッグ＆ドロップし、「インポート」をクリックします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「すべての提出を表示する」をクリックします</t>
+    <rPh sb="5" eb="7">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「すべての提出をダウンロードする」をクリックします</t>
+    <rPh sb="5" eb="7">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>zipファイルがダウンロードされますので、バックアップデータとして保管してください</t>
+    <rPh sb="33" eb="35">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;課題の提出データのバックアップ&lt;/h4&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;小テストの解答データのバックアップ&lt;/h4&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下の「受験結果」をクリックします</t>
+    <rPh sb="8" eb="10">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要に応じて、削除するユーザデータや各活動のバックアップを取得してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に「コース 設定 …」がありますが、その下の操作メニューをクリックし、「解答」を選択します</t>
+    <rPh sb="42" eb="44">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ダウンロード」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※提出のmoodle上へのデータ復旧（インストール）はできませんので、ご注意ください。</t>
+    <rPh sb="1" eb="3">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フッキュウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※解答のデータ復旧（インストール）はできませんので、ご注意ください。</t>
+    <rPh sb="1" eb="3">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フッキュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>活動やその他の設定を保持しながら、ユーザデータや評定結果をリセットすることができます。
+完全にデータ削除されるため、実施前にバックアップを取得してから実行することをおすすめします。
+また、削除する活動データやユーザロールは選択することができ、一部のデータを保持したままリセットすることも可能です。</t>
+    <rPh sb="24" eb="26">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ジッシマエ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>状況に応じて必ず以下を実施してください。
+・旧コースのセクションをインポートする新コースのセクションは空にしておく
+・旧コースのセクション内にサブセクションがある場合、インポート前に新コースの読み込み先セクションにも同じ構成のサブセクションを作っておく</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース内に課題が複数ある場合は、課題単位でダウンロードする必要があります</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース内に小テストが複数ある場合は、小テスト単位でダウンロードする必要があります</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>courseimport1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>chartn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>courseimport2.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>moodleは、インポートするセクションが上から何番目にあるかを判断し、新コースの同じ位置にインポートします。
+新コースのセクション数に応じてmoodleの動きが変わります。
+新コースのセクション数が旧コースのセクション数より多いまたは同じ場合は、同じ位置にインポートします。</t>
+    <rPh sb="56" eb="57">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新コースのセクション数が旧コースのセクション数より少ない場合は、セクションを追加し同じ位置にインポートします。</t>
+    <rPh sb="25" eb="26">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1997,7 +2157,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -2247,7 +2407,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2298,7 +2458,7 @@
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2312,19 +2472,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
@@ -2332,7 +2492,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
@@ -2340,27 +2500,27 @@
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
@@ -2368,45 +2528,45 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="4"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="4" t="s">
-        <v>104</v>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="2" t="s">
-        <v>111</v>
-      </c>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="2" t="s">
-        <v>119</v>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
@@ -2414,31 +2574,31 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="4" t="s">
-        <v>125</v>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
@@ -2446,21 +2606,23 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="4"/>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="4" t="s">
-        <v>105</v>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
@@ -2468,14 +2630,14 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C30" s="4"/>
@@ -2490,7 +2652,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="4" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
@@ -2498,7 +2660,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
@@ -2506,65 +2668,167 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="2" t="s">
-        <v>97</v>
-      </c>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B36" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B41" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B42" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B52" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B41" s="2" t="s">
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="G45" s="5"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G58" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2578,7 +2842,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3228,10 +3492,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3313,47 +3577,59 @@
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>139</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
@@ -3361,48 +3637,58 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="297" x14ac:dyDescent="0.15">
-      <c r="B29" s="2" t="s">
+    <row r="31" spans="2:2" ht="297" x14ac:dyDescent="0.15">
+      <c r="B31" s="2" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE594A6-85CC-41E9-908B-122DE609DC26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6467DF-7056-4446-8EB5-D03242CAC920}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4680" activeTab="11" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4680" activeTab="1" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>コースの名前や開講期間などを変更することができます
-コース名の下にある横一列のメニュー（コースナビ）で［設定］をクリックしてください</t>
-  </si>
-  <si>
     <t>chartn</t>
   </si>
   <si>
@@ -1607,6 +1603,11 @@
     <rPh sb="43" eb="45">
       <t>イチ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースの名前や開講期間などを変更することができます
+コース名の下にある横一列のメニュー（コースナビ）で「設定」をクリックしてください</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2110,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -2140,12 +2141,12 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2157,73 +2158,73 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
@@ -2284,14 +2285,14 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2303,76 +2304,76 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="54" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
@@ -2380,22 +2381,22 @@
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +2410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2421,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2450,7 +2453,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -2458,7 +2461,7 @@
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2472,19 +2475,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
@@ -2492,7 +2495,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
@@ -2500,19 +2503,19 @@
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
@@ -2520,7 +2523,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
@@ -2528,7 +2531,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -2536,7 +2539,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
@@ -2544,7 +2547,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
@@ -2558,7 +2561,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
@@ -2566,7 +2569,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
@@ -2574,7 +2577,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
@@ -2582,7 +2585,7 @@
     </row>
     <row r="23" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
@@ -2590,7 +2593,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
@@ -2598,7 +2601,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
@@ -2606,7 +2609,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
@@ -2614,7 +2617,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
@@ -2622,7 +2625,7 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
@@ -2630,7 +2633,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
@@ -2638,7 +2641,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
@@ -2652,7 +2655,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
@@ -2660,7 +2663,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
@@ -2668,7 +2671,7 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -2676,7 +2679,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
@@ -2684,7 +2687,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
@@ -2692,7 +2695,7 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
@@ -2700,7 +2703,7 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
@@ -2714,7 +2717,7 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -2722,7 +2725,7 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
@@ -2730,7 +2733,7 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
@@ -2738,7 +2741,7 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
@@ -2746,7 +2749,7 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
@@ -2754,7 +2757,7 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
@@ -2762,7 +2765,7 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
@@ -2770,7 +2773,7 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
@@ -2784,37 +2787,37 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G54" s="5"/>
     </row>
@@ -2841,9 +2844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213E5428-300C-4A46-BB15-C45BEE375C5B}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2884,13 +2885,13 @@
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -2899,7 +2900,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>4</v>
@@ -3109,13 +3110,13 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -3123,7 +3124,7 @@
     <row r="8" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -3136,57 +3137,57 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
@@ -3197,22 +3198,22 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
@@ -3273,13 +3274,13 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -3287,7 +3288,7 @@
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -3295,7 +3296,7 @@
     <row r="9" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -3309,55 +3310,55 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
@@ -3365,32 +3366,32 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
@@ -3398,63 +3399,63 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="54" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
@@ -3465,22 +3466,22 @@
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3508,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -3540,20 +3541,20 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="54" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -3565,43 +3566,43 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -3609,57 +3610,57 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
@@ -3667,22 +3668,22 @@
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3710,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -3796,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -3826,7 +3827,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -3834,7 +3835,7 @@
     <row r="7" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -3846,43 +3847,43 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -3890,27 +3891,27 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
@@ -3918,22 +3919,22 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6467DF-7056-4446-8EB5-D03242CAC920}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A2D83E-D82A-4F49-B7E9-336D562252E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4680" activeTab="1" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4680" activeTab="11" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="p9" sheetId="6" r:id="rId10"/>
     <sheet name="p10" sheetId="7" r:id="rId11"/>
     <sheet name="p11" sheetId="8" r:id="rId12"/>
+    <sheet name="p12" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="147">
   <si>
     <t>header1</t>
   </si>
@@ -1393,10 +1394,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「ダウンロード」をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>※提出のmoodle上へのデータ復旧（インストール）はできませんので、ご注意ください。</t>
     <rPh sb="1" eb="3">
       <t>テイシュツ</t>
@@ -1608,6 +1605,101 @@
   <si>
     <t>コースの名前や開講期間などを変更することができます
 コース名の下にある横一列のメニュー（コースナビ）で「設定」をクリックしてください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リセットの手順</t>
+    <rPh sb="5" eb="7">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースのリセットについて&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="user"&gt;&lt;/a&gt;コンテンツは残して学生を一括登録解除する&lt;/h3&gt;</t>
+    <rPh sb="29" eb="30">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期化したい内容に応じて、初期化手順を参照してください
+&lt;ul&gt;
+&lt;li&gt;コンテンツは残して学生を一括登録解除する&lt;/li&gt;
+&lt;li&gt;コンテンツを一括削除する&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="0" eb="3">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="contents"&gt;&lt;/a&gt;コンテンツを一括削除する&lt;/h3&gt;</t>
+    <rPh sb="33" eb="35">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;授業以外のコースの場合（もみじ連携）&lt;/h4&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;授業のコースの場合（もみじ連携）&lt;/h4&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レンケイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2241,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC7DB3-362D-4077-932E-AAF085409BB7}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2408,10 +2500,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2459,9 +2551,9 @@
       <c r="D6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2475,6 +2567,372 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="2"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="2"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="2"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="2"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="2"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46" s="2"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="2"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B48" s="2"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B49" s="2"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B50" s="2"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B52" s="2"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B53" s="2"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B54" s="2"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B55" s="2"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B56" s="2"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B57" s="2"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G61" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1B24F4-1F1B-4E4A-843D-DF46884ABAAB}">
+  <dimension ref="A1:G58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G9" s="5"/>
@@ -2663,7 +3121,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
@@ -2703,7 +3161,7 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
@@ -2725,7 +3183,7 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
@@ -2757,7 +3215,7 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
@@ -2773,7 +3231,7 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
@@ -2844,7 +3302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213E5428-300C-4A46-BB15-C45BEE375C5B}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2885,7 +3343,7 @@
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
@@ -3580,29 +4038,29 @@
     </row>
     <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A2D83E-D82A-4F49-B7E9-336D562252E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665B0538-CC92-4F98-9C55-39A12B2CA392}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4680" activeTab="11" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4680" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -744,10 +744,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="date"&gt;&lt;/a&gt;コースカテゴリの設定&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>宛先に表示されている新コース名をクリックします
 ※画面を移動してしまった場合は、新コースに入ってください</t>
     <rPh sb="0" eb="2">
@@ -1700,6 +1696,10 @@
     <rPh sb="17" eb="19">
       <t>レンケイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="category"&gt;&lt;/a&gt;コースカテゴリの設定&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2132,7 +2132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC74272D-8777-4FE7-835C-9D885C3D846F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -2233,12 +2233,12 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -2306,17 +2306,17 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
@@ -2377,14 +2377,14 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2403,19 +2403,19 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -2430,7 +2430,7 @@
     </row>
     <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
@@ -2502,7 +2502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2567,13 +2567,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2911,7 +2911,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2933,19 +2933,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
@@ -2961,19 +2961,19 @@
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="23" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G49" s="5"/>
     </row>
@@ -3257,19 +3257,19 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G53" s="5"/>
     </row>
@@ -3343,7 +3343,7 @@
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
@@ -3524,9 +3524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941222FB-E55A-47CC-B5A1-F5E77124EF18}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3754,7 +3752,7 @@
     <row r="9" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -4005,14 +4003,14 @@
     <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="54" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -4038,29 +4036,29 @@
     </row>
     <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -4241,9 +4239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9652E4E-CF8A-4811-A77C-0CF613F4D6EB}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4285,7 +4281,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -4293,7 +4289,7 @@
     <row r="7" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -4305,7 +4301,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -4349,22 +4345,22 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665B0538-CC92-4F98-9C55-39A12B2CA392}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A6D5F9-8AFD-4F28-9588-F19585D107CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4680" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="6330" activeTab="11" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="149">
   <si>
     <t>header1</t>
   </si>
@@ -1615,91 +1615,117 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="user"&gt;&lt;/a&gt;コンテンツは残して学生を一括登録解除する&lt;/h3&gt;</t>
-    <rPh sb="29" eb="30">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガクセイ</t>
+    <t>&lt;h3&gt;&lt;a name="category"&gt;&lt;/a&gt;コースカテゴリの設定&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下の「設定」をクリックし「コース設定を編集する」を開きます</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「コースフォーマット」&lt;/b&gt;のフォーマットを選択されているもの以外のフォーマットに変更してください
+例えば、「Flexible sections forma」の場合は「Kickstart format」に変更する</t>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
     </rPh>
     <rPh sb="35" eb="37">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>初期化したい内容に応じて、初期化手順を参照してください
-&lt;ul&gt;
-&lt;li&gt;コンテンツは残して学生を一括登録解除する&lt;/li&gt;
-&lt;li&gt;コンテンツを一括削除する&lt;/li&gt;
-&lt;/ul&gt;</t>
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「保存して表示する」をクリックすることで、コースの内容が初期化されます</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期化するコースを開きます</t>
     <rPh sb="0" eb="3">
       <t>ショキカ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
     <rPh sb="9" eb="10">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>header1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;コース内のコンテンツを全て削除したい場合&lt;/b&gt;、初期化する方法を説明します</t>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
       <t>ショキカ</t>
     </rPh>
-    <rPh sb="16" eb="18">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="contents"&gt;&lt;/a&gt;コンテンツを一括削除する&lt;/h3&gt;</t>
     <rPh sb="33" eb="35">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;授業以外のコースの場合（もみじ連携）&lt;/h4&gt;</t>
-    <rPh sb="4" eb="6">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元フォーマットに戻したい場合は、コース名の下の「設定」からフォーマットを変更してください</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="19" eb="21">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;授業のコースの場合（もみじ連携）&lt;/h4&gt;</t>
-    <rPh sb="4" eb="6">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="category"&gt;&lt;/a&gt;コースカテゴリの設定&lt;/h3&gt;</t>
+    <rPh sb="36" eb="38">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2132,7 +2158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC74272D-8777-4FE7-835C-9D885C3D846F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2334,7 +2360,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2502,8 +2528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2513,7 +2539,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -2551,39 +2577,43 @@
       <c r="D6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -2592,9 +2622,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="G14" s="5"/>
@@ -4345,7 +4373,7 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="27" x14ac:dyDescent="0.15">

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A6D5F9-8AFD-4F28-9588-F19585D107CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AD5C7F-90A1-44A5-B815-FFCAC52CDB38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="6330" activeTab="11" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
@@ -1635,29 +1635,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;b&gt;「コースフォーマット」&lt;/b&gt;のフォーマットを選択されているもの以外のフォーマットに変更してください
-例えば、「Flexible sections forma」の場合は「Kickstart format」に変更する</t>
-    <rPh sb="26" eb="28">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>タト</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「保存して表示する」をクリックすることで、コースの内容が初期化されます</t>
     <rPh sb="1" eb="3">
       <t>ホゾン</t>
@@ -1724,6 +1701,29 @@
       <t>バアイ</t>
     </rPh>
     <rPh sb="36" eb="38">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「コースフォーマット」&lt;/b&gt;の「フォーマット」を選択されているもの以外のフォーマットに変更してください
+例えば、「Flexible sections format」の場合は「Kickstart format」に変更する</t>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -2529,7 +2529,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2539,7 +2539,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -2601,19 +2601,19 @@
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G12" s="5"/>
     </row>

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AD5C7F-90A1-44A5-B815-FFCAC52CDB38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BF95BC-D52B-47BF-A5A4-0880B896C814}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="6330" activeTab="11" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6840" activeTab="1" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -546,6 +546,1165 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>コース名の下に「コース 設定 …」がありますが、さらにその下の操作メニューをクリックし、「リストア」を選択します
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;新コースは異なる教員の場合（バックアップファイルをインストールする場合）&lt;/b&gt;
+&lt;br&gt;「バックアップファイルをインポートする」の「ファイル」に共有されたバックアップファイルをドラッグ＆ドロップして追加してください&lt;br&gt;追加できたら「リストア」をクリックします&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;新コースも同じ教員の場合（ユーザプライベートバックアップエリアからインストールする場合）&lt;/b&gt;
+&lt;br&gt;「ユーザプライベートバックアップエリア」に確認したファイル名のバックアップファイルが表示されていることを確認します
+&lt;br&gt;対象ファイルの右横に表示されている「リストア」をクリックします&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="51" eb="53">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="214" eb="215">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新コースに旧コースを上書きするか選択します
+新コースにすでにあるコンテンツを&lt;u&gt;削除しない&lt;/u&gt;場合は、「バックアップコースをこのコースに結合する」を
+新コースにすでにあるコンテンツを&lt;u&gt;削除する&lt;/u&gt;場合は、「このコースのコンテンツを削除してリストアする」を選択し、「続ける」をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="reuse"&gt;&lt;/a&gt;コースのコンテンツを部分的に再利用する方法&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>eラーニング支援室では最も手軽に行えるインポートを推奨しています。
+ここでは&lt;b&gt;コースのコンテンツをインポートする方法&lt;/b&gt;を説明します。
+この方法は、事前にインポート先のコースを準備する必要があります。自動作成のコースにもインポート可能です。
+またインポート時に、再利用する項目を絞り込むことができます。
+部分的な再利用をご希望の方は、&lt;a href="p6.html"&gt;昨年度のコースのコンテンツを部分的に再利用したい&lt;/a&gt;をご確認ください。</t>
+    <rPh sb="6" eb="9">
+      <t>シエンシツ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上のユーザアイコンの右に表示されている「v」をクリックし、「プレファレンス」を選択します</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「その他」の中にある「コースの管理」をクリックします</t>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コピー元のコース名の右横に表示されている「コピー」をクリックします</t>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミギヨコ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「コースをコピーする」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステータスがチェックマークになればコピー完了です</t>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「長いコース名」、「コース省略名」を入力してください
+コースカテゴリは旧コースと同じカテゴリ以外を選択できないため、コピー後に変更します</t>
+    <rPh sb="1" eb="2">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショウリャクメイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宛先に表示されている新コース名をクリックします
+※画面を移動してしまった場合は、新コースに入ってください</t>
+    <rPh sb="0" eb="2">
+      <t>アテサキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下の「設定」をクリックします</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースカテゴリを変更し、「保存して表示する」をクリックします</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースのコピーについて&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースをコピーする&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大で作ったコンテンツを他大学でも使いたい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昨年度のコースのコンテンツを今年度のコースで再利用するには、以下の方法で実現することができます。
+&lt;ul&gt;
+&lt;li&gt;コースのコンテンツをインポートする方法（推奨）&lt;/li&gt;
+&lt;li&gt;コースのバックアップを取得し、リストアする方法&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="0" eb="3">
+      <t>サクネンド</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>コンネンド</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得したバックアップファイルを他大学のmoodleのコースにリストアしてください</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>タダイガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;他大学のmoodleコースにリストアする&lt;/h4&gt;</t>
+    <rPh sb="4" eb="7">
+      <t>タダイガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大moodleと他大学のmoodleは手順が異なる場合がありますので、リストアの手順は他大学のマニュアルまたは窓口にご確認ください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>タダイガク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>タダイガク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大で作ったコンテンツを他大学でも使いたい場合は、コースのバックアップファイルを取得し、そのファイルを他大学のmoodleにリストアすることで使うことができます。
+バックアップファイルはコースのバックアップを行うことで、ダウンロードすることができます。
+バックアップ時、対象とする項目を選択することができます。</t>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>タダイガク</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;コースにリストアする&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コンテンツを他大学で使う方法&lt;/h3&gt;</t>
+    <rPh sb="10" eb="13">
+      <t>タダイガク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;他大学のコンテンツを広大moodleで使う方法&lt;/h3&gt;</t>
+    <rPh sb="14" eb="16">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に「コース 設定 …」がありますが、さらにその下の操作メニューをクリックし、「リストア」を選択します
+「バックアップファイルをインポートする」の「ファイル」に共有されたバックアップファイルをドラッグ＆ドロップして追加してください
+追加できたら「リストア」をクリックします</t>
+    <rPh sb="51" eb="53">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他大学のmoodleのコースでバックアップを行い、バックアップファイルを取得してください</t>
+    <rPh sb="0" eb="3">
+      <t>タダイガク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>広大moodleと他大学のmoodleは手順が異なる場合がありますので、バックアップの手順は他大学のマニュアルまたは窓口にご確認ください</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>タダイガク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>タダイガク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>マドグチ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他大学のコンテンツを広大moodleで使いたい場合は、コースのバックアップファイルを取得し、そのファイルを広大moodleにリストアすることで使うことができます。
+バックアップファイルはコースのバックアップを行うことで、ダウンロードすることができます。
+リストア時には、対象とする項目を選択することや、新コースのコース設定に旧コースのものを上書きするかどうかも選択することができます。
+この上書き設定を誤ると、&lt;u&gt;&lt;b&gt;コースの編集権限を失うことがあります&lt;/u&gt;&lt;/b&gt;ので注意が必要です。
+また、事前にリストアするコースを準備する必要があります。自動作成のコースにリストアすることもできます。</t>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここでは&lt;b&gt;コースのバックアップを取得し、リストアする方法&lt;/b&gt;を説明します。
+旧コースでバックアップを作成し、新コースにリストアするやり方です。
+登録されている教員が異なるコース間でコースの内容を共通にしたい場合に便利です。
+事前にリストアするコースを準備する必要があります。自動作成のコースにリストアすることもできます。
+ 旧コースでのバックアップ時、新コースでのリストア時それぞれで、対象とする項目を選択できます。
+またリストア時には、新コースのコース設定に旧コースのものを上書きするかどうかも選択することができます。
+この上書き設定を誤ると、&lt;u&gt;&lt;b&gt;コースの編集権限を失うことがあります&lt;/u&gt;&lt;/b&gt;ので注意が必要です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>eラーニング支援室では最も手軽に行えるインポートを推奨しています。
+ここでは&lt;b&gt;コースのコンテンツをインポートする方法&lt;/b&gt;を説明します。
+この方法は事前にインポート先のコースを準備する必要があります。
+自動作成のコースへのインポートも可能です。</t>
+    <rPh sb="120" eb="122">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧コースをコピーして、新コースを作成するやり方です。
+事前にコピー先のコースを用意する必要はありませんが、既存のコースをコピー先に指定することはできません。
+また、旧コースの項目の中で、再利用したい項目を絞り込んでコピーすることもできません。
+この方法は、旧コースと全く同じ内容のコースを作成したい場合に便利です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースの初期化について&lt;/h3&gt;</t>
+    <rPh sb="8" eb="11">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="backup"&gt;&lt;/a&gt;コースをバックアップする&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に「コース 設定 …」がありますが、その下の操作メニューをクリックし、「リセット」を選択します</t>
+    <rPh sb="48" eb="50">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除したい項目が選択されていることを確認し、「コースをリセットする」をクリックしてください</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「すべてを展開する」をクリックし、削除したい項目を選択してください</t>
+    <rPh sb="5" eb="7">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下の「参加者」をクリックします</t>
+    <rPh sb="8" eb="11">
+      <t>サンカシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下の「評定」をクリックします</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象の課題を開いてください。</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象の小テストを開いてください。</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>userbackup1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すべての参加者が1ページに表示されている場合は、一番左上の□をクリックし、すべての参加者を選択してます
+※すべての参加者が複数ページに分かれて表示されている場合は、参加者一覧の左下に「ユーザすべてを選択する」が表示されますのでクリックし、すべての参加者を選択します
+「選択したユーザに対して…」の選択メニューをクリックし、「テーブルデータをダウンロードする：」の「カンマ区切り(.CSV)」を選択します</t>
+    <rPh sb="4" eb="7">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="82" eb="85">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="123" eb="126">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｃｓｖファイルがダウンロードされますので、バックアップデータとして保管してください</t>
+    <rPh sb="33" eb="35">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に「コース 設定 …」がありますが、その下の操作メニューをクリックし、「エクスポート」を選択します</t>
+    <rPh sb="50" eb="52">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ダウンロード」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「エクスポート形式: 」の右横をクリックし、「プレインテキストファイル」を選択してください
+（データ復旧する際のインポートが簡単です）</t>
+    <rPh sb="13" eb="15">
+      <t>ミギヨコ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>フッキュウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「セパレータ」は「タブ」を選択してください</t>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ファイル」にバックアップデータをドラッグ＆ドロップし、「評定をアップロードする」をクリックします。</t>
+    <rPh sb="29" eb="31">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースのデータをバックアップする&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;ユーザデータのバックアップ&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;評定データのバックアップ&lt;/h4&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースをリセットする&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下にある「コース 設定 …」のさらに下の操作メニューをクリックし、「登録をインポートする」をクリックします</t>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;バックアップデータをインポートする場合&lt;/h5&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に「コース 設定 …」がありますが、その下の操作メニューをクリックし、「インポート」を選択します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「インポートファイル」にバックアップデータをドラッグ＆ドロップし、「インポート」をクリックします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「すべての提出を表示する」をクリックします</t>
+    <rPh sb="5" eb="7">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「すべての提出をダウンロードする」をクリックします</t>
+    <rPh sb="5" eb="7">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>zipファイルがダウンロードされますので、バックアップデータとして保管してください</t>
+    <rPh sb="33" eb="35">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;課題の提出データのバックアップ&lt;/h4&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;小テストの解答データのバックアップ&lt;/h4&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下の「受験結果」をクリックします</t>
+    <rPh sb="8" eb="10">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要に応じて、削除するユーザデータや各活動のバックアップを取得してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に「コース 設定 …」がありますが、その下の操作メニューをクリックし、「解答」を選択します</t>
+    <rPh sb="42" eb="44">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※提出のmoodle上へのデータ復旧（インストール）はできませんので、ご注意ください。</t>
+    <rPh sb="1" eb="3">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フッキュウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※解答のデータ復旧（インストール）はできませんので、ご注意ください。</t>
+    <rPh sb="1" eb="3">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フッキュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>活動やその他の設定を保持しながら、ユーザデータや評定結果をリセットすることができます。
+完全にデータ削除されるため、実施前にバックアップを取得してから実行することをおすすめします。
+また、削除する活動データやユーザロールは選択することができ、一部のデータを保持したままリセットすることも可能です。</t>
+    <rPh sb="24" eb="26">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ジッシマエ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>状況に応じて必ず以下を実施してください。
+・旧コースのセクションをインポートする新コースのセクションは空にしておく
+・旧コースのセクション内にサブセクションがある場合、インポート前に新コースの読み込み先セクションにも同じ構成のサブセクションを作っておく</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース内に課題が複数ある場合は、課題単位でダウンロードする必要があります</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース内に小テストが複数ある場合は、小テスト単位でダウンロードする必要があります</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>courseimport1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>chartn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>courseimport2.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>moodleは、インポートするセクションが上から何番目にあるかを判断し、新コースの同じ位置にインポートします。
+新コースのセクション数に応じてmoodleの動きが変わります。
+新コースのセクション数が旧コースのセクション数より多いまたは同じ場合は、同じ位置にインポートします。</t>
+    <rPh sb="56" eb="57">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新コースのセクション数が旧コースのセクション数より少ない場合は、セクションを追加し同じ位置にインポートします。</t>
+    <rPh sb="25" eb="26">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースの名前や開講期間などを変更することができます
+コース名の下にある横一列のメニュー（コースナビ）で「設定」をクリックしてください</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リセットの手順</t>
+    <rPh sb="5" eb="7">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースのリセットについて&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="category"&gt;&lt;/a&gt;コースカテゴリの設定&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下の「設定」をクリックし「コース設定を編集する」を開きます</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「保存して表示する」をクリックすることで、コースの内容が初期化されます</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期化するコースを開きます</t>
+    <rPh sb="0" eb="3">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>header1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;コース内のコンテンツを全て削除したい場合&lt;/b&gt;、初期化する方法を説明します</t>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元フォーマットに戻したい場合は、コース名の下の「設定」からフォーマットを変更してください</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「コースフォーマット」&lt;/b&gt;の「フォーマット」を選択されているもの以外のフォーマットに変更してください
+例えば、「Flexible sections format」の場合は「Kickstart format」に変更する</t>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>２０２２年4月1日0:00開設の旧コースの項目を、2種類の新コースにインポートした場合、項目に設定されている日付がどのようになるか、具体例を表にまとめました。
  &lt;table border="1"&gt;
     &lt;tr&gt;
@@ -558,7 +1717,7 @@
       &lt;th bgcolor="#f5f5f5"&gt;開設日時&lt;/th&gt;
       &lt;td&gt;2022年4月1日0:00&lt;/td&gt;
       &lt;td&gt;2023年4月1日0:00&lt;/td&gt;
-      &lt;td&gt;2023年4月1日0:00&lt;/td&gt;
+      &lt;td&gt;2023年4月20日0:00&lt;/td&gt;
     &lt;/tr&gt;
     &lt;tr&gt;
       &lt;th bgcolor="#f5f5f5"&gt;課題終了日時&lt;/th&gt;
@@ -567,1165 +1726,6 @@
       &lt;td&gt;2023年5月8日0:00&lt;/td&gt;
     &lt;/tr&gt;
   &lt;/table&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース名の下に「コース 設定 …」がありますが、さらにその下の操作メニューをクリックし、「リストア」を選択します
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;新コースは異なる教員の場合（バックアップファイルをインストールする場合）&lt;/b&gt;
-&lt;br&gt;「バックアップファイルをインポートする」の「ファイル」に共有されたバックアップファイルをドラッグ＆ドロップして追加してください&lt;br&gt;追加できたら「リストア」をクリックします&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;新コースも同じ教員の場合（ユーザプライベートバックアップエリアからインストールする場合）&lt;/b&gt;
-&lt;br&gt;「ユーザプライベートバックアップエリア」に確認したファイル名のバックアップファイルが表示されていることを確認します
-&lt;br&gt;対象ファイルの右横に表示されている「リストア」をクリックします&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <rPh sb="51" eb="53">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="214" eb="215">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="219" eb="220">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新コースに旧コースを上書きするか選択します
-新コースにすでにあるコンテンツを&lt;u&gt;削除しない&lt;/u&gt;場合は、「バックアップコースをこのコースに結合する」を
-新コースにすでにあるコンテンツを&lt;u&gt;削除する&lt;/u&gt;場合は、「このコースのコンテンツを削除してリストアする」を選択し、「続ける」をクリックします</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ウワガ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>ツヅ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="reuse"&gt;&lt;/a&gt;コースのコンテンツを部分的に再利用する方法&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>eラーニング支援室では最も手軽に行えるインポートを推奨しています。
-ここでは&lt;b&gt;コースのコンテンツをインポートする方法&lt;/b&gt;を説明します。
-この方法は、事前にインポート先のコースを準備する必要があります。自動作成のコースにもインポート可能です。
-またインポート時に、再利用する項目を絞り込むことができます。
-部分的な再利用をご希望の方は、&lt;a href="p6.html"&gt;昨年度のコースのコンテンツを部分的に再利用したい&lt;/a&gt;をご確認ください。</t>
-    <rPh sb="6" eb="9">
-      <t>シエンシツ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>右上のユーザアイコンの右に表示されている「v」をクリックし、「プレファレンス」を選択します</t>
-    <rPh sb="0" eb="2">
-      <t>ミギウエ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「その他」の中にある「コースの管理」をクリックします</t>
-    <rPh sb="3" eb="4">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コピー元のコース名の右横に表示されている「コピー」をクリックします</t>
-    <rPh sb="3" eb="4">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ミギヨコ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「コースをコピーする」をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ステータスがチェックマークになればコピー完了です</t>
-    <rPh sb="20" eb="22">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「長いコース名」、「コース省略名」を入力してください
-コースカテゴリは旧コースと同じカテゴリ以外を選択できないため、コピー後に変更します</t>
-    <rPh sb="1" eb="2">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ショウリャクメイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>宛先に表示されている新コース名をクリックします
-※画面を移動してしまった場合は、新コースに入ってください</t>
-    <rPh sb="0" eb="2">
-      <t>アテサキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース名の下の「設定」をクリックします</t>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コースカテゴリを変更し、「保存して表示する」をクリックします</t>
-    <rPh sb="8" eb="10">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;コースのコピーについて&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;コースをコピーする&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広大で作ったコンテンツを他大学でも使いたい</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>昨年度のコースのコンテンツを今年度のコースで再利用するには、以下の方法で実現することができます。
-&lt;ul&gt;
-&lt;li&gt;コースのコンテンツをインポートする方法（推奨）&lt;/li&gt;
-&lt;li&gt;コースのバックアップを取得し、リストアする方法&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <rPh sb="0" eb="3">
-      <t>サクネンド</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>コンネンド</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>サイリヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジツゲン</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>スイショウ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取得したバックアップファイルを他大学のmoodleのコースにリストアしてください</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>タダイガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;他大学のmoodleコースにリストアする&lt;/h4&gt;</t>
-    <rPh sb="4" eb="7">
-      <t>タダイガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広大moodleと他大学のmoodleは手順が異なる場合がありますので、リストアの手順は他大学のマニュアルまたは窓口にご確認ください。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>タダイガク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>タダイガク</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>マドグチ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広大で作ったコンテンツを他大学でも使いたい場合は、コースのバックアップファイルを取得し、そのファイルを他大学のmoodleにリストアすることで使うことができます。
-バックアップファイルはコースのバックアップを行うことで、ダウンロードすることができます。
-バックアップ時、対象とする項目を選択することができます。</t>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="51" eb="54">
-      <t>タダイガク</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;コースにリストアする&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;コンテンツを他大学で使う方法&lt;/h3&gt;</t>
-    <rPh sb="10" eb="13">
-      <t>タダイガク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;他大学のコンテンツを広大moodleで使う方法&lt;/h3&gt;</t>
-    <rPh sb="14" eb="16">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース名の下に「コース 設定 …」がありますが、さらにその下の操作メニューをクリックし、「リストア」を選択します
-「バックアップファイルをインポートする」の「ファイル」に共有されたバックアップファイルをドラッグ＆ドロップして追加してください
-追加できたら「リストア」をクリックします</t>
-    <rPh sb="51" eb="53">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>他大学のmoodleのコースでバックアップを行い、バックアップファイルを取得してください</t>
-    <rPh sb="0" eb="3">
-      <t>タダイガク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>広大moodleと他大学のmoodleは手順が異なる場合がありますので、バックアップの手順は他大学のマニュアルまたは窓口にご確認ください</t>
-    <rPh sb="0" eb="2">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>タダイガク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="46" eb="49">
-      <t>タダイガク</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>マドグチ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>他大学のコンテンツを広大moodleで使いたい場合は、コースのバックアップファイルを取得し、そのファイルを広大moodleにリストアすることで使うことができます。
-バックアップファイルはコースのバックアップを行うことで、ダウンロードすることができます。
-リストア時には、対象とする項目を選択することや、新コースのコース設定に旧コースのものを上書きするかどうかも選択することができます。
-この上書き設定を誤ると、&lt;u&gt;&lt;b&gt;コースの編集権限を失うことがあります&lt;/u&gt;&lt;/b&gt;ので注意が必要です。
-また、事前にリストアするコースを準備する必要があります。自動作成のコースにリストアすることもできます。</t>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ヒロダイ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ここでは&lt;b&gt;コースのバックアップを取得し、リストアする方法&lt;/b&gt;を説明します。
-旧コースでバックアップを作成し、新コースにリストアするやり方です。
-登録されている教員が異なるコース間でコースの内容を共通にしたい場合に便利です。
-事前にリストアするコースを準備する必要があります。自動作成のコースにリストアすることもできます。
- 旧コースでのバックアップ時、新コースでのリストア時それぞれで、対象とする項目を選択できます。
-またリストア時には、新コースのコース設定に旧コースのものを上書きするかどうかも選択することができます。
-この上書き設定を誤ると、&lt;u&gt;&lt;b&gt;コースの編集権限を失うことがあります&lt;/u&gt;&lt;/b&gt;ので注意が必要です。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>eラーニング支援室では最も手軽に行えるインポートを推奨しています。
-ここでは&lt;b&gt;コースのコンテンツをインポートする方法&lt;/b&gt;を説明します。
-この方法は事前にインポート先のコースを準備する必要があります。
-自動作成のコースへのインポートも可能です。</t>
-    <rPh sb="120" eb="122">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>旧コースをコピーして、新コースを作成するやり方です。
-事前にコピー先のコースを用意する必要はありませんが、既存のコースをコピー先に指定することはできません。
-また、旧コースの項目の中で、再利用したい項目を絞り込んでコピーすることもできません。
-この方法は、旧コースと全く同じ内容のコースを作成したい場合に便利です。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;コースの初期化について&lt;/h3&gt;</t>
-    <rPh sb="8" eb="11">
-      <t>ショキカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="backup"&gt;&lt;/a&gt;コースをバックアップする&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース名の下に「コース 設定 …」がありますが、その下の操作メニューをクリックし、「リセット」を選択します</t>
-    <rPh sb="48" eb="50">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>削除したい項目が選択されていることを確認し、「コースをリセットする」をクリックしてください</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「すべてを展開する」をクリックし、削除したい項目を選択してください</t>
-    <rPh sb="5" eb="7">
-      <t>テンカイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース名の下の「参加者」をクリックします</t>
-    <rPh sb="8" eb="11">
-      <t>サンカシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース名の下の「評定」をクリックします</t>
-    <rPh sb="8" eb="10">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>対象の課題を開いてください。</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>対象の小テストを開いてください。</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>userbackup1.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>すべての参加者が1ページに表示されている場合は、一番左上の□をクリックし、すべての参加者を選択してます
-※すべての参加者が複数ページに分かれて表示されている場合は、参加者一覧の左下に「ユーザすべてを選択する」が表示されますのでクリックし、すべての参加者を選択します
-「選択したユーザに対して…」の選択メニューをクリックし、「テーブルデータをダウンロードする：」の「カンマ区切り(.CSV)」を選択します</t>
-    <rPh sb="4" eb="7">
-      <t>サンカシャ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>サンカシャ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>サンカシャ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="82" eb="85">
-      <t>サンカシャ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ヒダリシタ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="123" eb="126">
-      <t>サンカシャ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ｃｓｖファイルがダウンロードされますので、バックアップデータとして保管してください</t>
-    <rPh sb="33" eb="35">
-      <t>ホカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース名の下に「コース 設定 …」がありますが、その下の操作メニューをクリックし、「エクスポート」を選択します</t>
-    <rPh sb="50" eb="52">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ダウンロード」をクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「エクスポート形式: 」の右横をクリックし、「プレインテキストファイル」を選択してください
-（データ復旧する際のインポートが簡単です）</t>
-    <rPh sb="13" eb="15">
-      <t>ミギヨコ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>フッキュウ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>カンタン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「セパレータ」は「タブ」を選択してください</t>
-    <rPh sb="13" eb="15">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ファイル」にバックアップデータをドラッグ＆ドロップし、「評定をアップロードする」をクリックします。</t>
-    <rPh sb="29" eb="31">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;コースのデータをバックアップする&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;ユーザデータのバックアップ&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;評定データのバックアップ&lt;/h4&gt;</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;コースをリセットする&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース名の下にある「コース 設定 …」のさらに下の操作メニューをクリックし、「登録をインポートする」をクリックします</t>
-    <rPh sb="39" eb="41">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h5&gt;バックアップデータをインポートする場合&lt;/h5&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース名の下に「コース 設定 …」がありますが、その下の操作メニューをクリックし、「インポート」を選択します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「インポートファイル」にバックアップデータをドラッグ＆ドロップし、「インポート」をクリックします。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「すべての提出を表示する」をクリックします</t>
-    <rPh sb="5" eb="7">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「すべての提出をダウンロードする」をクリックします</t>
-    <rPh sb="5" eb="7">
-      <t>テイシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>zipファイルがダウンロードされますので、バックアップデータとして保管してください</t>
-    <rPh sb="33" eb="35">
-      <t>ホカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;課題の提出データのバックアップ&lt;/h4&gt;</t>
-    <rPh sb="4" eb="6">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>テイシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;小テストの解答データのバックアップ&lt;/h4&gt;</t>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース名の下の「受験結果」をクリックします</t>
-    <rPh sb="8" eb="10">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>必要に応じて、削除するユーザデータや各活動のバックアップを取得してください。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース名の下に「コース 設定 …」がありますが、その下の操作メニューをクリックし、「解答」を選択します</t>
-    <rPh sb="42" eb="44">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※提出のmoodle上へのデータ復旧（インストール）はできませんので、ご注意ください。</t>
-    <rPh sb="1" eb="3">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>フッキュウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※解答のデータ復旧（インストール）はできませんので、ご注意ください。</t>
-    <rPh sb="1" eb="3">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>フッキュウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>活動やその他の設定を保持しながら、ユーザデータや評定結果をリセットすることができます。
-完全にデータ削除されるため、実施前にバックアップを取得してから実行することをおすすめします。
-また、削除する活動データやユーザロールは選択することができ、一部のデータを保持したままリセットすることも可能です。</t>
-    <rPh sb="24" eb="26">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カンゼン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="58" eb="61">
-      <t>ジッシマエ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>状況に応じて必ず以下を実施してください。
-・旧コースのセクションをインポートする新コースのセクションは空にしておく
-・旧コースのセクション内にサブセクションがある場合、インポート前に新コースの読み込み先セクションにも同じ構成のサブセクションを作っておく</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース内に課題が複数ある場合は、課題単位でダウンロードする必要があります</t>
-    <rPh sb="3" eb="4">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース内に小テストが複数ある場合は、小テスト単位でダウンロードする必要があります</t>
-    <rPh sb="3" eb="4">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>courseimport1.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>chartn</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>courseimport2.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>moodleは、インポートするセクションが上から何番目にあるかを判断し、新コースの同じ位置にインポートします。
-新コースのセクション数に応じてmoodleの動きが変わります。
-新コースのセクション数が旧コースのセクション数より多いまたは同じ場合は、同じ位置にインポートします。</t>
-    <rPh sb="56" eb="57">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>イチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新コースのセクション数が旧コースのセクション数より少ない場合は、セクションを追加し同じ位置にインポートします。</t>
-    <rPh sb="25" eb="26">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>イチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コースの名前や開講期間などを変更することができます
-コース名の下にある横一列のメニュー（コースナビ）で「設定」をクリックしてください</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リセットの手順</t>
-    <rPh sb="5" eb="7">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;コースのリセットについて&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="category"&gt;&lt;/a&gt;コースカテゴリの設定&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース名の下の「設定」をクリックし「コース設定を編集する」を開きます</t>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「保存して表示する」をクリックすることで、コースの内容が初期化されます</t>
-    <rPh sb="1" eb="3">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>ショキカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>初期化するコースを開きます</t>
-    <rPh sb="0" eb="3">
-      <t>ショキカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>header1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;コース内のコンテンツを全て削除したい場合&lt;/b&gt;、初期化する方法を説明します</t>
-    <rPh sb="6" eb="7">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>ショキカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>元フォーマットに戻したい場合は、コース名の下の「設定」からフォーマットを変更してください</t>
-    <rPh sb="0" eb="1">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;「コースフォーマット」&lt;/b&gt;の「フォーマット」を選択されているもの以外のフォーマットに変更してください
-例えば、「Flexible sections format」の場合は「Kickstart format」に変更する</t>
-    <rPh sb="28" eb="30">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>タト</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ヘンコウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2215,7 +2215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7550A206-2A47-42FD-A6A0-0D0BE341BE00}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -2259,12 +2259,12 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -2332,17 +2332,17 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
@@ -2359,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC7DB3-362D-4077-932E-AAF085409BB7}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2403,14 +2403,14 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2429,19 +2429,19 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -2456,7 +2456,7 @@
     </row>
     <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
@@ -2466,7 +2466,7 @@
     </row>
     <row r="18" spans="2:2" ht="54" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
@@ -2514,7 +2514,7 @@
     </row>
     <row r="28" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2528,7 +2528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C775EBBF-DE01-4A93-8B00-4D47667AF52B}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2539,7 +2539,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -2595,25 +2595,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2939,7 +2939,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2961,19 +2961,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
@@ -2989,19 +2989,19 @@
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="23" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G49" s="5"/>
     </row>
@@ -3285,19 +3285,19 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G53" s="5"/>
     </row>
@@ -3330,7 +3330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213E5428-300C-4A46-BB15-C45BEE375C5B}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3371,7 +3371,7 @@
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
@@ -3552,7 +3552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941222FB-E55A-47CC-B5A1-F5E77124EF18}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3608,7 +3610,7 @@
     <row r="8" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -3697,7 +3699,7 @@
     </row>
     <row r="26" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
@@ -3714,8 +3716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C020CB47-0798-4D2D-8049-474B7F8F9449}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3780,7 +3782,7 @@
     <row r="9" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -3898,7 +3900,7 @@
     </row>
     <row r="31" spans="2:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>14</v>
@@ -3914,7 +3916,7 @@
     </row>
     <row r="33" spans="2:2" ht="54" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
@@ -3965,7 +3967,7 @@
     </row>
     <row r="44" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3979,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4025,20 +4027,20 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="54" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -4064,29 +4066,29 @@
     </row>
     <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -4167,7 +4169,7 @@
     </row>
     <row r="31" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4267,7 +4269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9652E4E-CF8A-4811-A77C-0CF613F4D6EB}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4309,7 +4313,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -4317,7 +4321,7 @@
     <row r="7" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -4329,43 +4333,43 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -4373,22 +4377,22 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
@@ -4416,7 +4420,7 @@
     </row>
     <row r="26" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BF95BC-D52B-47BF-A5A4-0880B896C814}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F075250-FCFA-4663-87AE-958E96DB7071}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6840" activeTab="1" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="1" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="166">
   <si>
     <t>header1</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>コースを学生アクセス不可としたい</t>
-  </si>
-  <si>
-    <t>誤って削除した課題や小テストを取り戻したい</t>
   </si>
   <si>
     <t>昨年度のコースのコンテンツを再利用したい</t>
@@ -1726,6 +1723,301 @@
       &lt;td&gt;2023年5月8日0:00&lt;/td&gt;
     &lt;/tr&gt;
   &lt;/table&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>誤って削除した課題や小テストを取り戻したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースを学生アクセス不可とする&lt;/h3&gt;</t>
+    <rPh sb="8" eb="10">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセス不可としたいコースを開きます</t>
+    <rPh sb="4" eb="6">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に表示されている「設定」をクリックします</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「一般」の中の「&lt;b&gt;コースの可視性&lt;/b&gt;」を「表示」から「非表示」に変更します</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カシセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースに学生として登録されているユーザはコースが表示されなくなります
+その他のユーザもダッシュボードの「最近アクセスされたコース」には表示されなくなりますので、「コースツリー」「マイコース」などからアクセスしてください</t>
+    <rPh sb="4" eb="6">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サイキン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;誤って削除した課題や小テストを取り戻す方法&lt;/h3&gt;</t>
+    <rPh sb="23" eb="25">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取り戻すことができるのは、&lt;b&gt;7日以内&lt;/b&gt;ですのでご注意ください</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象のコースを開きます</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;コース内で設定する場合&lt;/h4&gt;</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;コース一覧から設定する場合&lt;/h4&gt;</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースを開かずにコース一覧からでも設定できます
+複数コースを設定したい場合は、この手順がおすすめです</t>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセス不可としたいコースの「可視性」（目のマーク）をクリックします
+目のマークに斜線が入れば非表示となり、アクセス不可となります</t>
+    <rPh sb="4" eb="6">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カシセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シャセン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に表示されている「さらにV」をクリックし、「ごみ箱」を選択します</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>バコ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取り戻したい課題や小テスト名の横に表示されている「リストア」（上矢印のマーク）をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヤジルシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「 ○○がリストアされました。 」というメッセージが表示されたら、削除した課題や小テストがコース内に戻っているか確認してください</t>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>eラーニング支援室では最も手軽に行えるインポートを推奨しています。
+インポートの方法は、&lt;a href="p6.html"&gt;こちら&lt;/a&gt;をご確認ください。</t>
+    <rPh sb="6" eb="9">
+      <t>シエンシツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="preparation"&gt;&lt;/a&gt;リストアする準備&lt;/h3&gt;</t>
+    <rPh sb="35" eb="37">
+      <t>ジュンビ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2187,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -2215,7 +2507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7550A206-2A47-42FD-A6A0-0D0BE341BE00}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2229,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -2245,7 +2537,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -2259,12 +2551,12 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2276,73 +2568,73 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
@@ -2359,7 +2651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC7DB3-362D-4077-932E-AAF085409BB7}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -2373,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -2389,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -2403,14 +2695,14 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2422,76 +2714,76 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="54" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
@@ -2499,22 +2791,22 @@
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2539,10 +2831,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2558,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -2571,7 +2863,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -2579,7 +2871,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2587,7 +2879,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -2595,25 +2887,25 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -2910,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -2926,7 +3218,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -2939,7 +3231,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -2947,7 +3239,7 @@
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -2961,19 +3253,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
@@ -2981,7 +3273,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
@@ -2989,19 +3281,19 @@
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
@@ -3009,7 +3301,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
@@ -3017,7 +3309,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -3025,7 +3317,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
@@ -3033,7 +3325,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
@@ -3047,7 +3339,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
@@ -3055,7 +3347,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
@@ -3063,7 +3355,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
@@ -3071,7 +3363,7 @@
     </row>
     <row r="23" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
@@ -3079,7 +3371,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
@@ -3087,7 +3379,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
@@ -3095,7 +3387,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
@@ -3103,7 +3395,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
@@ -3111,7 +3403,7 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
@@ -3119,7 +3411,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
@@ -3127,7 +3419,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
@@ -3141,7 +3433,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
@@ -3149,7 +3441,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
@@ -3157,7 +3449,7 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -3165,7 +3457,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
@@ -3173,7 +3465,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
@@ -3181,7 +3473,7 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
@@ -3189,7 +3481,7 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
@@ -3203,7 +3495,7 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -3211,7 +3503,7 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
@@ -3219,7 +3511,7 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
@@ -3227,7 +3519,7 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
@@ -3235,7 +3527,7 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
@@ -3243,7 +3535,7 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
@@ -3251,7 +3543,7 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
@@ -3259,7 +3551,7 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
@@ -3273,37 +3565,37 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G54" s="5"/>
     </row>
@@ -3358,7 +3650,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -3371,13 +3663,13 @@
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="108" x14ac:dyDescent="0.15">
@@ -3386,7 +3678,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>4</v>
@@ -3409,10 +3701,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AAC137-94F7-4C20-9279-DE89D329BEF5}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3441,7 +3733,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -3455,23 +3747,72 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
-      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3482,7 +3823,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60C4D1C-58FD-4AED-BC2C-C80FEA49CAA7}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -3498,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -3514,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -3527,19 +3868,40 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3552,7 +3914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941222FB-E55A-47CC-B5A1-F5E77124EF18}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -3566,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -3582,7 +3944,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -3596,13 +3958,13 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -3610,7 +3972,7 @@
     <row r="8" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -3623,57 +3985,57 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
@@ -3684,22 +4046,22 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
@@ -3716,8 +4078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C020CB47-0798-4D2D-8049-474B7F8F9449}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3730,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -3746,7 +4108,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -3760,13 +4122,13 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -3774,7 +4136,7 @@
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -3782,7 +4144,7 @@
     <row r="9" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -3796,55 +4158,55 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
@@ -3852,32 +4214,32 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
@@ -3885,63 +4247,63 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="54" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
@@ -3952,22 +4314,22 @@
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3981,8 +4343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA17F0-6AE7-4829-9AED-1E4503894A61}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3995,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4011,7 +4373,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -4027,20 +4389,20 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="54" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -4052,43 +4414,43 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -4096,57 +4458,57 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
@@ -4154,22 +4516,22 @@
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4181,11 +4543,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EE6385-DC28-476D-8005-F1BA007D69FC}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4197,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4213,7 +4573,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -4228,22 +4588,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="7"/>
+    <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.4">
+      <c r="B8" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:4" ht="94.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
@@ -4253,10 +4621,224 @@
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="B32" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="B39" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B41" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B43" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B44" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B47" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B48" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="297" x14ac:dyDescent="0.15">
+      <c r="B50" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -4269,8 +4851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9652E4E-CF8A-4811-A77C-0CF613F4D6EB}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4283,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4299,7 +4881,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -4313,7 +4895,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -4321,7 +4903,7 @@
     <row r="7" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -4333,43 +4915,43 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -4377,27 +4959,27 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="27" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
@@ -4405,22 +4987,22 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="297" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/revref_course.xlsx
+++ b/revref_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F075250-FCFA-4663-87AE-958E96DB7071}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B371952F-D7B2-42B3-8B4E-6983D1A9CA01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="1" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -1928,25 +1928,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コース名の下に表示されている「さらにV」をクリックし、「ごみ箱」を選択します</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>バコ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>取り戻したい課題や小テスト名の横に表示されている「リストア」（上矢印のマーク）をクリックします</t>
     <rPh sb="0" eb="1">
       <t>ト</t>
@@ -2017,6 +1998,25 @@
     <t>&lt;h3&gt;&lt;a name="preparation"&gt;&lt;/a&gt;リストアする準備&lt;/h3&gt;</t>
     <rPh sb="35" eb="37">
       <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に表示されている「さらにv」をクリックし、「ごみ箱」を選択します</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>バコ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2450,7 +2450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC74272D-8777-4FE7-835C-9D885C3D846F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3622,7 +3622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213E5428-300C-4A46-BB15-C45BEE375C5B}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3703,8 +3703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AAC137-94F7-4C20-9279-DE89D329BEF5}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3826,7 +3826,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3890,17 +3890,17 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
